--- a/AfterMSC.xlsx
+++ b/AfterMSC.xlsx
@@ -15,8 +15,13 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -363,7 +368,3084 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.633201700327355</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6304940614964766</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6280794786427971</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6266170885289217</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.626502444692812</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6270426875108226</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6294503677396167</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6298562494422127</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6313533311223258</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6308741061448182</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6329003017557352</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6361513764559033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6401829096661549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6437210830754634</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6468223880470418</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6499449871034398</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6539938086159011</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6589472762200332</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6646266656730819</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6689104669665377</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6716340573502182</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.671748134342372</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6719971866220288</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.6730036016513166</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.6745977354779485</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6752491519036592</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.6730561129371067</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.6704505953107932</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.667267144623374</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.6653520182594728</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.6643386545935615</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.6627556276946684</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6604984071474196</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.6577302815718128</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.6563171568516175</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.6582758251467355</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.6613683787601604</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.6647592781924673</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.666475553937662</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.6680009357751386</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.6716799612445099</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6779110168224446</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.6858835158944423</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.693919145362553</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.7010457481124185</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.7081932149127591</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.7158572601615881</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.7253054088456009</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.7357961656411972</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.74575794489102</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.7531218072617556</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.7604763391149518</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.769197904429022</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.7816224588953012</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.7946753400689813</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.8062494323215236</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.8154908435838164</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.8230985608494537</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.8313369088322325</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.8412807031783839</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.8521581211081757</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.8656688459861861</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.8781604690815394</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.8935010516620685</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.9097235961444214</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.929346133159733</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.9496143905951757</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.9682773838447408</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.982699139690894</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.9928906121500043</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1.0021630636558958</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.0114886032084016</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1.0215346732419293</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1.0296896358369274</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1.0357522464751487</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1.0405261850650027</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1.0458473747846473</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1.053584393923348</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1.0609766937389695</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1.0656797882902809</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1.0645394155067787</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.060578858426044</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1.056155373963328</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.0552369076779822</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1.0547065069919108</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1.0536242622257708</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1.0476638741302668</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1.0396546210720037</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1.0305107972063845</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1.0223511090449544</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1.0098672946898457</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.9929513334369509</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.9697428659884955</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.9466036873437391</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.9245363763614097</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.906574685339309</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.890224006387722</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.8741134809578586</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.8571687756047658</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.8404437338871427</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.8253170235477048</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.8137811553552445</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.8028850251430433</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.7919039380566862</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.7790343410372493</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.7671967845514136</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.7567379221522444</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.7508085096893007</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.7454149627812398</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.7409155466286081</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.7334660424511548</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.726617648879985</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.7205577369747018</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.7170805789896104</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.7142830691423041</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.711212019760077</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.7063525467070899</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.7014209578824501</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.6971294041499921</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.6954947822576878</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.6937682349072423</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.6917301021345518</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.68728516454362</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.6832919478729208</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.6796979169484414</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.678884748274869</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.6782689873458675</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.6778018025324646</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.6752660638495412</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.6731467697078539</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.6710307847318748</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.6717177677450831</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.6729429841771707</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.674091222005086</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.6726220881507282</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.6705833080840895</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.6694996459752584</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.6712402151605029</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.6735383739447747</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.6756332948114312</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.6749736727214054</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.6739204130351155</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.6727493230345024</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.6742003209722083</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.6761278981169354</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.6773483961835436</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.6758314937917379</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.6743675743523707</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.6738301579181926</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.6763561471430273</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.6792363248082199</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.6816528323092553</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.6822196826141066</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.6822891866592403</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.6836930250027794</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.687427726437897</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.6921688711581188</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.6969549598344383</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.7002815527939997</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.704176776575593</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.7097732460277908</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.7193290194812431</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.731574074143657</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.7453835671406988</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.759187863208281</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.775648365607406</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.7957306870126656</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.8218658898109199</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.850123430369696</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.8810299787931541</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.9097140706655861</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.9403090177099604</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.971896840567981</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1.006856969300126</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1.040702117476901</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1.068793919829363</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1.0834287106087659</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1.0892185617911938</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1.090168515073494</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1.0941522489981161</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>1.1001165004333011</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1.1066635637151248</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>1.1096776548150162</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1.1127722764150203</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1.1172635601882432</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1.1257904256691642</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1.1341241585612398</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1.141838158657573</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1.1452355590433823</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1.1468642050849902</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>1.1447893619420466</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1.1453821007857283</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1.1432208001639739</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1.142388557922619</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1.135815333745433</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1.1327691019392694</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1.1297952995762297</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>1.1365141248678432</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1.1435489832341834</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1.1557935701695312</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1.1627082534402613</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1.1713918769957061</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1.1773063895543556</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1.185700930337265</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1.1918340343910425</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1.195911182288941</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1.191720607213793</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1.1848251790979745</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1.1748516866046388</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1.1663782490040568</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1.1553487400920832</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>1.1418379409013033</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1.1245554059170557</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1.1067873246859026</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1.0904204927441061</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1.0799119864283526</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1.0690708564249432</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1.0602766581274259</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1.0478936961756782</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1.0390580945621257</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1.0295123132893547</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1.0262905894739338</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1.0234485862911276</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1.0231440360007287</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1.0203843172044582</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1.019769718093932</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1.0202775033441664</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>1.0247823776487737</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1.0300312326207715</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1.0357231753379346</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1.0388718892141668</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1.0422862444346028</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1.0473608739443871</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1.057363035747471</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>1.0671576955747968</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1.0787785555329585</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1.08721149999815</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1.098531946595057</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1.1093200595312078</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1.1250794433715157</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1.1396028212405818</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1.1545166893628793</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1.1647220350469376</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1.1752770142053088</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>1.1834441480910554</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1.1930297655617113</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1.1984698647282732</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>1.2035467542998128</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1.200530622377126</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1.1991468622385415</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>1.1942558015147644</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>1.1951935097963693</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>1.195258574452992</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>1.1962636559315196</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>1.1939308528682624</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>1.1903770681141925</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>1.185216151845353</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>1.1812962948739831</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>1.1741988714081832</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>1.1651204069902024</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>1.1479327188175796</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>1.1302141233271887</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>1.1106069697465921</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>1.0957736576196793</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>1.0790724520830213</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>1.0649821694502946</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>1.0476122159132308</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>1.033760190065378</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>1.0205443943097294</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>1.013861211097422</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>1.0086819739460822</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>1.007411042445544</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>1.0045614837650187</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>1.005209227658075</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>1.0065156741533035</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>1.0142799778933158</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>1.0225370720676676</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>1.033558649169038</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>1.0408814462969793</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>1.0489916583151433</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>1.0550825667853438</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>1.0635202559826273</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>1.0699919001647642</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1.0760817160591358</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>1.0776890432206319</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>1.0799527388558467</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>1.0809587788777566</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>1.0885061482478868</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>1.096519006305657</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>1.1066596868146361</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>1.1110288731352174</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>1.1172099178391202</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>1.1236664046752685</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>1.1352783941428757</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>1.1460001430870506</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>1.157070425428848</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>1.1634755579940053</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>1.1701031970253906</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>1.1744843407633774</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>1.1829463159843325</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>1.1898982442863362</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>1.1993246866606164</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>1.2038060476977874</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>1.2097725059033486</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>1.213543529155245</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>1.2216178706629124</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>1.2279064644219437</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>1.2357345866018326</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>1.2389459345194818</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>1.2438199663945535</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>1.2475904366511694</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>1.2549786277459865</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>1.2599496861070618</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>1.2641944271263974</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>1.2625813121433238</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>1.2616823286401382</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>1.2580979935243055</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>1.2589700448715868</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>1.256851052275234</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>1.2550871722953498</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>1.248845048955371</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>1.2448881662309892</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>1.240610415059599</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>1.2429471287638838</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>1.246117983781938</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>1.2524673978793524</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>1.2570644478072612</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>1.2643290327716281</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>1.2749946780364918</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>1.2920653256965218</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>1.3105201037012026</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>1.3320498040985367</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>1.3493327190527147</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>1.369929226053014</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>1.3868963106665324</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>1.4080891791593788</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>1.4240364740743023</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>1.443843033436447</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>1.455430841918006</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>1.4705135462371206</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>1.4794340393608114</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>1.4917253033154432</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>1.4984276356764334</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>1.5049183036935954</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>1.5055605145898174</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>1.50533155331517</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>1.502534468099283</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>1.5072490626885018</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>1.5118325907531325</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>1.52103058105616</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>1.5196910409759112</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>1.5180809453369974</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>1.514039482755079</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>1.5159907049374521</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>1.51830808304408</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>1.518334070943333</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>1.5127701805387224</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>1.5096715409708188</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>1.5065556899779327</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>1.5070332414339502</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>1.5064653805583423</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>1.5091595373736904</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>1.5083570321840083</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>1.5058795040416417</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>1.5022973797444492</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>1.5054939969423005</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>1.5067080233007237</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>1.5075641234141093</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>1.5032904895923243</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>1.5027727577886274</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>1.5008992680257218</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>1.5036461293993013</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>1.5029214533750381</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>1.504603778076053</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>1.500419710426488</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>1.4990505900029891</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>1.4948537193645302</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>1.4978848663613853</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>1.4980097035642754</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>1.5006864639793112</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>1.4954732297779245</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>1.4942770282204454</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>1.490485670430732</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>1.4939490561693551</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>1.4956206082799688</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>1.5002667276490582</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>1.4954791840864499</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>1.494126143186826</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>1.4896502102914564</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>1.495231918392326</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>1.49528483833814</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>1.498132344932244</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>1.4929785037133956</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>1.4915645736938192</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>1.4856851050910993</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>1.488189282603534</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>1.4875888324836815</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>1.4917855841076537</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>1.4857025060147304</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>1.4810621137178528</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>1.472642567011191</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>1.4731896569735627</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>1.4689683157804898</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>1.4675649964812836</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>1.456211258278391</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>1.450794584513197</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>1.4421362807809037</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>1.4400823496501605</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>1.4360854966292573</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>1.4318048525289586</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>1.423520405866225</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>1.414556825780444</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>1.4076672423582133</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>1.4038473321044302</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>1.3988787824731215</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>1.3951553799157668</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>1.386137623035818</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>1.3786202150633151</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>1.3680468195265163</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>1.362739966132624</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>1.3545337203681207</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>1.346980802230938</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>1.3329532928495964</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>1.3197103609378413</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>1.3044965524059733</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>1.292769757615124</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>1.2784996660951722</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>1.26469804325897</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>1.2460617120833075</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>1.229878404396083</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>1.2125991646483285</v>
+      </c>
+      <c r="PP2" t="n">
+        <v>1.2028876076795145</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>1.1940612172127976</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>1.1866742570700726</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>1.1749509285221535</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>1.1644996269356822</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>1.1551009626709434</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>1.1520641116158785</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>1.1481652096630381</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>1.1453440917648896</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>1.1389574905725754</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>1.1337043554984867</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>1.1279545099007415</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>1.1269006563664858</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>1.1255496048343954</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>1.1261079647612757</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>1.121676854396254</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>1.1195690115066832</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>1.115937886694615</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>1.118065401341342</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>1.1181455502331559</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>1.1224410764057262</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>1.120931623740354</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>1.121660314298606</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>1.1198212526619629</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>1.1246075133117224</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>1.1273639258456405</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>1.1323418831570768</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>1.1327371593897735</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>1.1348847283226136</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>1.1349102333882326</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>1.1398088059377824</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>1.1441669109217742</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>1.148023678090109</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>1.145088357742335</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>1.1419565318333498</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>1.1395727225654613</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>1.1400530042693648</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>1.1375921873619819</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>1.132879787026801</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>1.1219146593458265</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>1.1119601831183104</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>1.0981683882940112</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>1.0885240594599581</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>1.0747538993965595</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>1.062535996929678</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>1.0450243738990543</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>1.030891164309638</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>1.018892617009276</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>1.0098727784867794</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>1.0022357150519898</v>
+      </c>
+      <c r="RN2" t="n">
+        <v>0.9922167175101747</v>
+      </c>
+      <c r="RO2" t="n">
+        <v>0.9781298840784417</v>
+      </c>
+      <c r="RP2" t="n">
+        <v>0.9654268037981477</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>0.951956923398723</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>0.9437019817955548</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>0.9321605584514251</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>0.923862258057091</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>0.9099081660671761</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>0.8992055956928571</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>0.883837696416201</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>0.8761258784951561</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>0.8660114637529746</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>0.8581765379707058</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>0.8481367393365422</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>0.833690535017333</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>0.8232230114664443</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>0.8135608874514539</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>0.810271798833459</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>0.802414131204346</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>0.7883916668374046</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>0.7742312730163131</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>0.7632580262919088</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>0.7588503819944628</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>0.7532954192704977</v>
+      </c>
+      <c r="SL2" t="n">
+        <v>0.7496877705992969</v>
+      </c>
+      <c r="SM2" t="n">
+        <v>0.740341302803866</v>
+      </c>
+      <c r="SN2" t="n">
+        <v>0.7319656654181775</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>0.7258368997511521</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>0.7192728045775499</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>0.7112327973124035</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>0.6990923309638272</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.6372415762124239</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.636248989780132</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6351720299956022</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6341882845207891</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6336759968383443</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6348202944248871</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6363783489017429</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6375620915115161</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6383697134588046</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6388082711332795</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6406136290824007</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6428002682359891</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6467428916355366</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6501760992736968</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.6538037836538811</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6567593916946921</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.6606515536592859</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.665251983543766</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6696240009236711</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.6732302300263524</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.675174793901404</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.6761548547400096</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6763229249148691</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.6777311368188932</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.679764572286337</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.6806801216225102</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.6790159188471031</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.6754281112202396</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6725060494892219</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.6710688287797656</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.6704710721895943</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.6692156095025684</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.6671347701559324</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.6644200071723777</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.6631923049689129</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.6642897239138847</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.6675817285819118</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.670930712862347</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6728830594581938</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.6740671893287008</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.6770107564089016</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.6830037061273758</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.6912466564506534</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.6987721366507241</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.7055084854669337</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.7119514393289925</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.7195572354264229</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.7282853592400063</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.7373592583935883</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.7461861958957814</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.7535550597652028</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.7611055759765073</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.7699005225172628</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.7811792228403552</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.7932990990405171</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.8044639513106404</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.8127370193527668</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.8195389384066032</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.8269757337629509</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.8365567954289704</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.848452435903442</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.8607217872959794</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.8733128510816627</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.8865979323394187</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.9024001072279406</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.9206715091360738</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.9400059256472022</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.9584713673760561</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.9717167650276777</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.981228997679718</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.9897595330730306</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.999776727631813</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1.0099421372063968</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1.0168069579318273</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1.022400094312061</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1.027353523475739</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1.034465310936748</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1.0415627443119753</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1.0490289390185783</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1.052133468016282</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1.0509812509810734</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.0478272268915998</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1.0444230618614583</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.0439745615417786</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1.042962491244371</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1.0424174767679506</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1.0372080336889185</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>1.030278628414975</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>1.0215156199699567</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>1.0127034344348282</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.9998887011459526</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.9833240919511337</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.9626830646213069</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.940815474417571</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.9198398187507125</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.9025056099579987</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.8871417590709152</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.8714603533141287</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.8545621535305554</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.8386552203026594</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.823935229837493</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.8128590469757578</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.8024022003975718</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.7924627091437073</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0.7805990801623535</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0.769391588028557</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.7593287921901761</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.7533258424146343</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.7481864485701906</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.7434576685851647</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.736833810472605</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.7300336144510372</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.7242007312296317</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.7209144188853331</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.7184261489407978</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.7160023515960424</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.7114557815901305</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.7066399558147144</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.7024728842133318</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.7005349422321224</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.6992350847037816</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.6972193394097307</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0.6936020140746675</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.6892564502044846</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.6860340430195111</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0.6846994948788773</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>0.6845543994817623</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>0.6841017294402983</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0.6818699039998942</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0.679570317515595</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0.6777419809937181</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.6783899199805565</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0.6797020006708984</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0.6806073684347079</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0.6791621287234484</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0.6774200509756313</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.6763857834439471</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.6775984126296926</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.6796598701162346</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.6814780609626531</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.6814807581184865</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0.6803518838412752</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0.6794252737017953</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0.6808610527650701</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.6824016593482098</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0.6836716162501977</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0.6822688215283794</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0.6812685831148488</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0.680702197759231</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0.6828709506631022</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0.6854061611984671</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0.6879032323346549</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0.6883337487718988</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0.6887590996750489</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0.6901893919434782</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0.6939314186154175</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0.6985403651332837</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0.702746727358435</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0.7056879700652999</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0.7091609164158195</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0.7148137724595135</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0.724096161783458</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0.735690721805126</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0.7486308186249118</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.7617958490045618</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0.7771655890491226</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.7963030626924774</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>0.8206024259587459</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0.8483583910553635</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0.8775844043206957</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0.905195324953007</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0.9341708593237859</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0.9649562680300009</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0.9984064290044712</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>1.0303609864612615</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>1.0568514782261587</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>1.072614251926725</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>1.0788742953667632</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>1.0805984237626363</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>1.0847544699955285</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>1.0903461411883455</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>1.096375189553781</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>1.09864915165412</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>1.1020231880330613</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>1.1064903053698971</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>1.114638929275109</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>1.1224633101558188</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>1.1293850438644664</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>1.1331535368406467</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1.1355149883043891</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>1.1341812333533055</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>1.1341307653068609</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>1.1311922202006182</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>1.1300897242036092</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1.1249034192193936</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>1.1216386805012364</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>1.1205680902574435</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>1.1265693685572546</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>1.1353351304250412</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>1.1452614900645652</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>1.1520046602237937</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>1.1595108140777368</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>1.1664005340084558</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>1.1748715904939042</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>1.1804286561724635</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>1.1839258917094946</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>1.1808475814130135</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>1.174195634141037</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>1.1646149864986666</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>1.1553979029822228</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>1.1443253720416855</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>1.1313572705664163</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>1.1146428168106943</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1.097907720666596</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>1.0818872824933399</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>1.0713522200185734</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>1.0617287569096807</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>1.0531948693680289</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>1.0412844430789718</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>1.0316900903890522</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>1.0230395651078878</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>1.0205681061048961</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>1.0182148444666472</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>1.017026869552304</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>1.0137359173173233</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1.0133178931658167</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>1.014326883170447</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>1.0186988512203496</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>1.0230218060152192</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1.0280829458638816</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>1.0305185087099586</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1.0344557952906568</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>1.0393482850620486</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>1.0491798380108281</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>1.0589084992949152</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1.0704171796056414</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>1.0789174775802852</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>1.0899989215717825</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>1.1013339275663214</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>1.117076648932867</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1.1320631352903818</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>1.1462945600372674</v>
+      </c>
+      <c r="II3" t="n">
+        <v>1.1563984154762597</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1.1659891918840848</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>1.1736574930663974</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>1.1836218172112871</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>1.1890617989668215</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>1.1938634890771593</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>1.1905475254554523</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>1.1884219918328158</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>1.1846442595689883</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>1.1859835764034228</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>1.1866174795702737</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>1.1885365526218925</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>1.1858742551639099</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>1.182814340121717</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>1.1768125707856356</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>1.17336349513144</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>1.1664652817415262</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>1.1582762511121432</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>1.1411948298438301</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>1.1239670643617952</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>1.1036721683527058</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>1.0891982962112692</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>1.072738091957311</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>1.0585866704850881</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>1.0417075668430635</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>1.0275892391574148</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>1.015041980379779</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>1.0083737586797314</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>1.0038403827104008</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>1.002686219036868</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>1.0003113387783458</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>1.0005710759479116</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>1.0017924793717412</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>1.0086426447976335</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>1.015948887526238</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>1.0260298139325283</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>1.0336936332462725</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>1.042410293261746</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>1.049303979660937</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>1.0576546233424409</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>1.0641802983810196</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>1.070459208922602</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>1.072526487821716</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>1.0741907443922831</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>1.0754941766542916</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>1.0817719832301058</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>1.0898555390635465</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>1.0990407540110572</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>1.1042500114298395</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>1.1109766470652618</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>1.1169447077396875</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>1.128178295638638</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>1.1380428743021664</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>1.1491649432742987</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>1.1551905918796326</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>1.1623175359657132</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>1.1666989416033209</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>1.174547297277287</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>1.1821122950730454</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>1.1908892359461543</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>1.1954930935050816</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>1.1999638301841888</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>1.2054248030454717</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>1.2139234930939635</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>1.2213608377002425</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>1.2278768895849153</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>1.2323159885561503</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>1.2369242110555136</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>1.2414746219935768</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>1.2479514502932103</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>1.253252673173681</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>1.2568266474942165</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>1.2551553117386882</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>1.2533537409099362</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>1.2502901303421474</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>1.251304011211894</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>1.249416094982047</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>1.247780592211939</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>1.241866492247171</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>1.2364469136479637</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>1.2323531824438314</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>1.2329487080515324</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>1.2379338964963345</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>1.2442951192010974</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>1.2491034399027119</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>1.2572478998998817</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>1.2680745373812028</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>1.2856381234939573</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>1.3046217391528716</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>1.3266883906084435</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>1.3454974447617816</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>1.36545562156431</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>1.3831355382861323</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>1.4044302741640626</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>1.4226659071097203</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>1.4419918864220564</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>1.4570846553364902</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>1.4706222664004582</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>1.4805302231013817</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>1.4926262953556544</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>1.5020141395893396</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>1.5108724383716285</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>1.5108727789284657</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>1.511596679789652</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>1.5096292284088257</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>1.5139397988480665</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>1.5173414338462938</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>1.525467666038559</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>1.524616968903812</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>1.5257290711191147</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>1.5231144901926854</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>1.526132194220973</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>1.5252663967974849</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>1.5241287538188695</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>1.519931003473851</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>1.5172797672391278</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>1.5132178132321652</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>1.5142433271658544</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>1.513736656624682</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>1.5175058632671674</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>1.514021298556907</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>1.5131351663503447</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>1.5092659438669598</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>1.5136368442670471</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>1.5149045224507567</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>1.518836791013503</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>1.514415068785514</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>1.512638105670294</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>1.508248761882545</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>1.5114345770859234</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>1.5121682888620114</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>1.515077988827936</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>1.510902118321643</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>1.5100248471091473</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>1.505434094501657</v>
+      </c>
+      <c r="NN3" t="n">
+        <v>1.5078312983122923</v>
+      </c>
+      <c r="NO3" t="n">
+        <v>1.5063035812732368</v>
+      </c>
+      <c r="NP3" t="n">
+        <v>1.5073074462663394</v>
+      </c>
+      <c r="NQ3" t="n">
+        <v>1.5035925171505529</v>
+      </c>
+      <c r="NR3" t="n">
+        <v>1.5022473047950444</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>1.5010974229225316</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>1.5029984602955029</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>1.504272777311366</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>1.5057621857151668</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>1.5044152669158708</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>1.5037248057663186</v>
+      </c>
+      <c r="NY3" t="n">
+        <v>1.5029730248670394</v>
+      </c>
+      <c r="NZ3" t="n">
+        <v>1.5055340058934295</v>
+      </c>
+      <c r="OA3" t="n">
+        <v>1.5084088859947635</v>
+      </c>
+      <c r="OB3" t="n">
+        <v>1.5115212142463605</v>
+      </c>
+      <c r="OC3" t="n">
+        <v>1.508147380896496</v>
+      </c>
+      <c r="OD3" t="n">
+        <v>1.5046476274935534</v>
+      </c>
+      <c r="OE3" t="n">
+        <v>1.4967081869526109</v>
+      </c>
+      <c r="OF3" t="n">
+        <v>1.49787395705183</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>1.497027894177817</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>1.4988801443275943</v>
+      </c>
+      <c r="OI3" t="n">
+        <v>1.4921610221405532</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>1.4877686343328238</v>
+      </c>
+      <c r="OK3" t="n">
+        <v>1.4815190744219853</v>
+      </c>
+      <c r="OL3" t="n">
+        <v>1.4822332886582192</v>
+      </c>
+      <c r="OM3" t="n">
+        <v>1.478709878461795</v>
+      </c>
+      <c r="ON3" t="n">
+        <v>1.4766483754563133</v>
+      </c>
+      <c r="OO3" t="n">
+        <v>1.4679190183515887</v>
+      </c>
+      <c r="OP3" t="n">
+        <v>1.4610209595976313</v>
+      </c>
+      <c r="OQ3" t="n">
+        <v>1.4524620419194154</v>
+      </c>
+      <c r="OR3" t="n">
+        <v>1.4476525152301587</v>
+      </c>
+      <c r="OS3" t="n">
+        <v>1.4422954009258602</v>
+      </c>
+      <c r="OT3" t="n">
+        <v>1.4385984395627864</v>
+      </c>
+      <c r="OU3" t="n">
+        <v>1.4304289530297538</v>
+      </c>
+      <c r="OV3" t="n">
+        <v>1.4221833355239244</v>
+      </c>
+      <c r="OW3" t="n">
+        <v>1.4130722548381918</v>
+      </c>
+      <c r="OX3" t="n">
+        <v>1.408636431393187</v>
+      </c>
+      <c r="OY3" t="n">
+        <v>1.4026474440775436</v>
+      </c>
+      <c r="OZ3" t="n">
+        <v>1.3991373812717212</v>
+      </c>
+      <c r="PA3" t="n">
+        <v>1.3913392214230493</v>
+      </c>
+      <c r="PB3" t="n">
+        <v>1.3840235099393148</v>
+      </c>
+      <c r="PC3" t="n">
+        <v>1.3734578151690318</v>
+      </c>
+      <c r="PD3" t="n">
+        <v>1.366346345754406</v>
+      </c>
+      <c r="PE3" t="n">
+        <v>1.3592141954545023</v>
+      </c>
+      <c r="PF3" t="n">
+        <v>1.3514098254710016</v>
+      </c>
+      <c r="PG3" t="n">
+        <v>1.3381011132324332</v>
+      </c>
+      <c r="PH3" t="n">
+        <v>1.3227489633739822</v>
+      </c>
+      <c r="PI3" t="n">
+        <v>1.305392221434943</v>
+      </c>
+      <c r="PJ3" t="n">
+        <v>1.2914143305441053</v>
+      </c>
+      <c r="PK3" t="n">
+        <v>1.2768892562940688</v>
+      </c>
+      <c r="PL3" t="n">
+        <v>1.263684457733206</v>
+      </c>
+      <c r="PM3" t="n">
+        <v>1.2462722346166997</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>1.2310314375100315</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>1.2141705554624291</v>
+      </c>
+      <c r="PP3" t="n">
+        <v>1.2033831685281742</v>
+      </c>
+      <c r="PQ3" t="n">
+        <v>1.1934188250117455</v>
+      </c>
+      <c r="PR3" t="n">
+        <v>1.1855251082764948</v>
+      </c>
+      <c r="PS3" t="n">
+        <v>1.1746687339237016</v>
+      </c>
+      <c r="PT3" t="n">
+        <v>1.1645802366313955</v>
+      </c>
+      <c r="PU3" t="n">
+        <v>1.1561440769459481</v>
+      </c>
+      <c r="PV3" t="n">
+        <v>1.152481445531724</v>
+      </c>
+      <c r="PW3" t="n">
+        <v>1.1470019738543795</v>
+      </c>
+      <c r="PX3" t="n">
+        <v>1.142838603318384</v>
+      </c>
+      <c r="PY3" t="n">
+        <v>1.1364072340828122</v>
+      </c>
+      <c r="PZ3" t="n">
+        <v>1.13335081047762</v>
+      </c>
+      <c r="QA3" t="n">
+        <v>1.1286561829509882</v>
+      </c>
+      <c r="QB3" t="n">
+        <v>1.1279198964332757</v>
+      </c>
+      <c r="QC3" t="n">
+        <v>1.126642875289316</v>
+      </c>
+      <c r="QD3" t="n">
+        <v>1.1271443653719038</v>
+      </c>
+      <c r="QE3" t="n">
+        <v>1.1224973351573004</v>
+      </c>
+      <c r="QF3" t="n">
+        <v>1.1196425950881532</v>
+      </c>
+      <c r="QG3" t="n">
+        <v>1.1159456699786394</v>
+      </c>
+      <c r="QH3" t="n">
+        <v>1.1186583218332704</v>
+      </c>
+      <c r="QI3" t="n">
+        <v>1.1197091912628392</v>
+      </c>
+      <c r="QJ3" t="n">
+        <v>1.1231938596732842</v>
+      </c>
+      <c r="QK3" t="n">
+        <v>1.1215244740701205</v>
+      </c>
+      <c r="QL3" t="n">
+        <v>1.1218773592672093</v>
+      </c>
+      <c r="QM3" t="n">
+        <v>1.1214353067613017</v>
+      </c>
+      <c r="QN3" t="n">
+        <v>1.1253106024471329</v>
+      </c>
+      <c r="QO3" t="n">
+        <v>1.129027724417184</v>
+      </c>
+      <c r="QP3" t="n">
+        <v>1.1336050664546533</v>
+      </c>
+      <c r="QQ3" t="n">
+        <v>1.1344899162468105</v>
+      </c>
+      <c r="QR3" t="n">
+        <v>1.1363837185513184</v>
+      </c>
+      <c r="QS3" t="n">
+        <v>1.1367301066893245</v>
+      </c>
+      <c r="QT3" t="n">
+        <v>1.1415886857546844</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>1.144749235445896</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>1.1506271962601333</v>
+      </c>
+      <c r="QW3" t="n">
+        <v>1.1510471748829914</v>
+      </c>
+      <c r="QX3" t="n">
+        <v>1.1509895892558055</v>
+      </c>
+      <c r="QY3" t="n">
+        <v>1.1465289240619125</v>
+      </c>
+      <c r="QZ3" t="n">
+        <v>1.1447260485652</v>
+      </c>
+      <c r="RA3" t="n">
+        <v>1.140952296097517</v>
+      </c>
+      <c r="RB3" t="n">
+        <v>1.1380285321322208</v>
+      </c>
+      <c r="RC3" t="n">
+        <v>1.1280427023183595</v>
+      </c>
+      <c r="RD3" t="n">
+        <v>1.1177622605795372</v>
+      </c>
+      <c r="RE3" t="n">
+        <v>1.104398371237264</v>
+      </c>
+      <c r="RF3" t="n">
+        <v>1.0935810886818909</v>
+      </c>
+      <c r="RG3" t="n">
+        <v>1.081468257486765</v>
+      </c>
+      <c r="RH3" t="n">
+        <v>1.0690869987371305</v>
+      </c>
+      <c r="RI3" t="n">
+        <v>1.0542500236188468</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>1.0404135668563688</v>
+      </c>
+      <c r="RK3" t="n">
+        <v>1.028121762994757</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>1.019385320452653</v>
+      </c>
+      <c r="RM3" t="n">
+        <v>1.0096726507132707</v>
+      </c>
+      <c r="RN3" t="n">
+        <v>0.9989550261634998</v>
+      </c>
+      <c r="RO3" t="n">
+        <v>0.9870143904968375</v>
+      </c>
+      <c r="RP3" t="n">
+        <v>0.9752175921312722</v>
+      </c>
+      <c r="RQ3" t="n">
+        <v>0.9649196847460765</v>
+      </c>
+      <c r="RR3" t="n">
+        <v>0.9556812759091516</v>
+      </c>
+      <c r="RS3" t="n">
+        <v>0.9441604678439698</v>
+      </c>
+      <c r="RT3" t="n">
+        <v>0.9348356784586882</v>
+      </c>
+      <c r="RU3" t="n">
+        <v>0.9194635275118219</v>
+      </c>
+      <c r="RV3" t="n">
+        <v>0.9068601205696236</v>
+      </c>
+      <c r="RW3" t="n">
+        <v>0.8930908250366443</v>
+      </c>
+      <c r="RX3" t="n">
+        <v>0.8885071190633224</v>
+      </c>
+      <c r="RY3" t="n">
+        <v>0.8796743852355194</v>
+      </c>
+      <c r="RZ3" t="n">
+        <v>0.8715807896489124</v>
+      </c>
+      <c r="SA3" t="n">
+        <v>0.8526411370508598</v>
+      </c>
+      <c r="SB3" t="n">
+        <v>0.8468771794440917</v>
+      </c>
+      <c r="SC3" t="n">
+        <v>0.8369560027564857</v>
+      </c>
+      <c r="SD3" t="n">
+        <v>0.8267682802728714</v>
+      </c>
+      <c r="SE3" t="n">
+        <v>0.814369524786774</v>
+      </c>
+      <c r="SF3" t="n">
+        <v>0.8030832893553458</v>
+      </c>
+      <c r="SG3" t="n">
+        <v>0.7986782301743451</v>
+      </c>
+      <c r="SH3" t="n">
+        <v>0.7863009755063028</v>
+      </c>
+      <c r="SI3" t="n">
+        <v>0.7743682379672739</v>
+      </c>
+      <c r="SJ3" t="n">
+        <v>0.7649765479911085</v>
+      </c>
+      <c r="SK3" t="n">
+        <v>0.7598952690671036</v>
+      </c>
+      <c r="SL3" t="n">
+        <v>0.7564854130946498</v>
+      </c>
+      <c r="SM3" t="n">
+        <v>0.7521226405559672</v>
+      </c>
+      <c r="SN3" t="n">
+        <v>0.7436778819865161</v>
+      </c>
+      <c r="SO3" t="n">
+        <v>0.7391361911673662</v>
+      </c>
+      <c r="SP3" t="n">
+        <v>0.7294278824434601</v>
+      </c>
+      <c r="SQ3" t="n">
+        <v>0.7248437971676801</v>
+      </c>
+      <c r="SR3" t="n">
+        <v>0.720190825445337</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AfterMSC.xlsx
+++ b/AfterMSC.xlsx
@@ -64965,6 +64965,3082 @@
         <v>0.553820345147983</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.46886666084385525</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4681079939424514</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.46758525258676104</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.46689754676299594</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.46641279215991616</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.46640141659723994</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.46735753740025315</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4677308455879014</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4686391576142741</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4687666641160313</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.4706425585979518</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.47218598451607596</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4758894077198474</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.47853297139825085</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.48285840803034036</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.4852294293482893</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.4892206526188154</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.49195640596965035</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.49612976664445346</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.4982521701908836</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.500569855474614</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.5010508823222269</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.502465387168492</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.5032512926510448</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.5049397123802404</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.5049214382986521</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.5046641448937614</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.5027274775818428</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.5018295023095319</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.5004843886747041</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.5006680977985447</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.49963196790247344</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.4992776624997783</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.4978185385137198</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.4981868367992995</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.498782575994027</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.5011467892773919</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.5026529071125312</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.5045746842906299</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.5055551810960934</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.508313116672245</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.5116085991365207</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.5166855282129955</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.5208806576404038</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.5256545790604378</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.5295116486135119</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.5346935652526478</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.5396949874664521</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0.545856954564537</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0.5511818869007871</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0.556609299931219</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0.5612408724515185</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0.5672317386259609</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0.5738371284976871</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0.5816537600628345</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0.5883554503405009</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0.5943282213999295</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0.5986937354528236</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>0.6039246840701068</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>0.609536217082424</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0.6171810171386612</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>0.6248510134061827</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>0.6335328259375234</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>0.6422759186766797</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>0.6530918077236617</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>0.664823318729189</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>0.6780283928390579</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>0.6895295092173676</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>0.6992571991031168</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>0.706242875746797</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>0.7129083026192399</v>
+      </c>
+      <c r="BT44" t="n">
+        <v>0.7189976830171513</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0.7252922113722912</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>0.7302112707248071</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>0.7347581467758044</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>0.7386197906202656</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>0.7436968654907281</v>
+      </c>
+      <c r="BZ44" t="n">
+        <v>0.748930434108926</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>0.7539670624161117</v>
+      </c>
+      <c r="CB44" t="n">
+        <v>0.7563048158090279</v>
+      </c>
+      <c r="CC44" t="n">
+        <v>0.7564015664297519</v>
+      </c>
+      <c r="CD44" t="n">
+        <v>0.7543707436458649</v>
+      </c>
+      <c r="CE44" t="n">
+        <v>0.7528429224760984</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>0.751957426288547</v>
+      </c>
+      <c r="CG44" t="n">
+        <v>0.7521414495007682</v>
+      </c>
+      <c r="CH44" t="n">
+        <v>0.7511546079011399</v>
+      </c>
+      <c r="CI44" t="n">
+        <v>0.7489060528593635</v>
+      </c>
+      <c r="CJ44" t="n">
+        <v>0.7445046570791616</v>
+      </c>
+      <c r="CK44" t="n">
+        <v>0.7393813966678885</v>
+      </c>
+      <c r="CL44" t="n">
+        <v>0.7325181579259759</v>
+      </c>
+      <c r="CM44" t="n">
+        <v>0.7240133155749001</v>
+      </c>
+      <c r="CN44" t="n">
+        <v>0.7122369981933635</v>
+      </c>
+      <c r="CO44" t="n">
+        <v>0.6984975292942871</v>
+      </c>
+      <c r="CP44" t="n">
+        <v>0.6836146259378044</v>
+      </c>
+      <c r="CQ44" t="n">
+        <v>0.6700096595217578</v>
+      </c>
+      <c r="CR44" t="n">
+        <v>0.6579629175622324</v>
+      </c>
+      <c r="CS44" t="n">
+        <v>0.6477870860171753</v>
+      </c>
+      <c r="CT44" t="n">
+        <v>0.6374767917376559</v>
+      </c>
+      <c r="CU44" t="n">
+        <v>0.6276583351225202</v>
+      </c>
+      <c r="CV44" t="n">
+        <v>0.6175757236775689</v>
+      </c>
+      <c r="CW44" t="n">
+        <v>0.6091519870272525</v>
+      </c>
+      <c r="CX44" t="n">
+        <v>0.6016400610057105</v>
+      </c>
+      <c r="CY44" t="n">
+        <v>0.5954681739971296</v>
+      </c>
+      <c r="CZ44" t="n">
+        <v>0.5887688281848095</v>
+      </c>
+      <c r="DA44" t="n">
+        <v>0.5821517773685284</v>
+      </c>
+      <c r="DB44" t="n">
+        <v>0.5751305708534425</v>
+      </c>
+      <c r="DC44" t="n">
+        <v>0.5697810125122176</v>
+      </c>
+      <c r="DD44" t="n">
+        <v>0.5656235141345914</v>
+      </c>
+      <c r="DE44" t="n">
+        <v>0.563002805094346</v>
+      </c>
+      <c r="DF44" t="n">
+        <v>0.5599342732446904</v>
+      </c>
+      <c r="DG44" t="n">
+        <v>0.5566102697737703</v>
+      </c>
+      <c r="DH44" t="n">
+        <v>0.5526745459035248</v>
+      </c>
+      <c r="DI44" t="n">
+        <v>0.549699928780579</v>
+      </c>
+      <c r="DJ44" t="n">
+        <v>0.547374118892944</v>
+      </c>
+      <c r="DK44" t="n">
+        <v>0.5461232637418184</v>
+      </c>
+      <c r="DL44" t="n">
+        <v>0.5442717147099295</v>
+      </c>
+      <c r="DM44" t="n">
+        <v>0.54229009324393</v>
+      </c>
+      <c r="DN44" t="n">
+        <v>0.5394815619824525</v>
+      </c>
+      <c r="DO44" t="n">
+        <v>0.5376042638511781</v>
+      </c>
+      <c r="DP44" t="n">
+        <v>0.5363085961236006</v>
+      </c>
+      <c r="DQ44" t="n">
+        <v>0.5357781701069367</v>
+      </c>
+      <c r="DR44" t="n">
+        <v>0.5344197759111188</v>
+      </c>
+      <c r="DS44" t="n">
+        <v>0.5326090480471778</v>
+      </c>
+      <c r="DT44" t="n">
+        <v>0.5300900904548851</v>
+      </c>
+      <c r="DU44" t="n">
+        <v>0.5286099660621276</v>
+      </c>
+      <c r="DV44" t="n">
+        <v>0.527779409788006</v>
+      </c>
+      <c r="DW44" t="n">
+        <v>0.528007434399647</v>
+      </c>
+      <c r="DX44" t="n">
+        <v>0.5276634748070385</v>
+      </c>
+      <c r="DY44" t="n">
+        <v>0.526838453676201</v>
+      </c>
+      <c r="DZ44" t="n">
+        <v>0.5254799046382306</v>
+      </c>
+      <c r="EA44" t="n">
+        <v>0.5247385423773638</v>
+      </c>
+      <c r="EB44" t="n">
+        <v>0.5250192649824611</v>
+      </c>
+      <c r="EC44" t="n">
+        <v>0.5260123215081348</v>
+      </c>
+      <c r="ED44" t="n">
+        <v>0.526435031150092</v>
+      </c>
+      <c r="EE44" t="n">
+        <v>0.5260587022921593</v>
+      </c>
+      <c r="EF44" t="n">
+        <v>0.5251623062461047</v>
+      </c>
+      <c r="EG44" t="n">
+        <v>0.525256868915909</v>
+      </c>
+      <c r="EH44" t="n">
+        <v>0.5262172569579437</v>
+      </c>
+      <c r="EI44" t="n">
+        <v>0.5278539551058534</v>
+      </c>
+      <c r="EJ44" t="n">
+        <v>0.5287910259696045</v>
+      </c>
+      <c r="EK44" t="n">
+        <v>0.5288986619334463</v>
+      </c>
+      <c r="EL44" t="n">
+        <v>0.5283425444162985</v>
+      </c>
+      <c r="EM44" t="n">
+        <v>0.5283772141129779</v>
+      </c>
+      <c r="EN44" t="n">
+        <v>0.529220817375537</v>
+      </c>
+      <c r="EO44" t="n">
+        <v>0.530492313802889</v>
+      </c>
+      <c r="EP44" t="n">
+        <v>0.5310361035270347</v>
+      </c>
+      <c r="EQ44" t="n">
+        <v>0.5305702472757088</v>
+      </c>
+      <c r="ER44" t="n">
+        <v>0.5299439392439329</v>
+      </c>
+      <c r="ES44" t="n">
+        <v>0.5300351662829775</v>
+      </c>
+      <c r="ET44" t="n">
+        <v>0.5314552627455245</v>
+      </c>
+      <c r="EU44" t="n">
+        <v>0.5332969905411035</v>
+      </c>
+      <c r="EV44" t="n">
+        <v>0.5348619264056436</v>
+      </c>
+      <c r="EW44" t="n">
+        <v>0.5354470807408945</v>
+      </c>
+      <c r="EX44" t="n">
+        <v>0.5359158081831206</v>
+      </c>
+      <c r="EY44" t="n">
+        <v>0.5369090931474737</v>
+      </c>
+      <c r="EZ44" t="n">
+        <v>0.5394148027624381</v>
+      </c>
+      <c r="FA44" t="n">
+        <v>0.5423134800680884</v>
+      </c>
+      <c r="FB44" t="n">
+        <v>0.545201363531647</v>
+      </c>
+      <c r="FC44" t="n">
+        <v>0.5472210745165174</v>
+      </c>
+      <c r="FD44" t="n">
+        <v>0.5497132824442638</v>
+      </c>
+      <c r="FE44" t="n">
+        <v>0.5533330721445998</v>
+      </c>
+      <c r="FF44" t="n">
+        <v>0.5592173660405655</v>
+      </c>
+      <c r="FG44" t="n">
+        <v>0.5665462985922048</v>
+      </c>
+      <c r="FH44" t="n">
+        <v>0.5748747847044293</v>
+      </c>
+      <c r="FI44" t="n">
+        <v>0.5835671853433108</v>
+      </c>
+      <c r="FJ44" t="n">
+        <v>0.5935922816462442</v>
+      </c>
+      <c r="FK44" t="n">
+        <v>0.6062227233515284</v>
+      </c>
+      <c r="FL44" t="n">
+        <v>0.6214613209129085</v>
+      </c>
+      <c r="FM44" t="n">
+        <v>0.6394228542761277</v>
+      </c>
+      <c r="FN44" t="n">
+        <v>0.6581486471059076</v>
+      </c>
+      <c r="FO44" t="n">
+        <v>0.6774284980034511</v>
+      </c>
+      <c r="FP44" t="n">
+        <v>0.6972016167192076</v>
+      </c>
+      <c r="FQ44" t="n">
+        <v>0.7188768932094283</v>
+      </c>
+      <c r="FR44" t="n">
+        <v>0.7420087509202233</v>
+      </c>
+      <c r="FS44" t="n">
+        <v>0.7648596678305828</v>
+      </c>
+      <c r="FT44" t="n">
+        <v>0.7836505250149969</v>
+      </c>
+      <c r="FU44" t="n">
+        <v>0.7949383124549078</v>
+      </c>
+      <c r="FV44" t="n">
+        <v>0.7994622486974433</v>
+      </c>
+      <c r="FW44" t="n">
+        <v>0.8012843490819381</v>
+      </c>
+      <c r="FX44" t="n">
+        <v>0.803867550977758</v>
+      </c>
+      <c r="FY44" t="n">
+        <v>0.8082493442432428</v>
+      </c>
+      <c r="FZ44" t="n">
+        <v>0.8123238277887247</v>
+      </c>
+      <c r="GA44" t="n">
+        <v>0.8154232351617451</v>
+      </c>
+      <c r="GB44" t="n">
+        <v>0.8177433061518464</v>
+      </c>
+      <c r="GC44" t="n">
+        <v>0.8215994670417425</v>
+      </c>
+      <c r="GD44" t="n">
+        <v>0.8268864339363698</v>
+      </c>
+      <c r="GE44" t="n">
+        <v>0.8333230892866091</v>
+      </c>
+      <c r="GF44" t="n">
+        <v>0.8384112362896858</v>
+      </c>
+      <c r="GG44" t="n">
+        <v>0.8418221465012863</v>
+      </c>
+      <c r="GH44" t="n">
+        <v>0.8430828389235697</v>
+      </c>
+      <c r="GI44" t="n">
+        <v>0.843149240216182</v>
+      </c>
+      <c r="GJ44" t="n">
+        <v>0.842740097876068</v>
+      </c>
+      <c r="GK44" t="n">
+        <v>0.8413487443329504</v>
+      </c>
+      <c r="GL44" t="n">
+        <v>0.8392868572828877</v>
+      </c>
+      <c r="GM44" t="n">
+        <v>0.8361584185984776</v>
+      </c>
+      <c r="GN44" t="n">
+        <v>0.8340945423994455</v>
+      </c>
+      <c r="GO44" t="n">
+        <v>0.8344209410467639</v>
+      </c>
+      <c r="GP44" t="n">
+        <v>0.8386261596741232</v>
+      </c>
+      <c r="GQ44" t="n">
+        <v>0.8453118730669251</v>
+      </c>
+      <c r="GR44" t="n">
+        <v>0.8529565624501259</v>
+      </c>
+      <c r="GS44" t="n">
+        <v>0.8598172217367799</v>
+      </c>
+      <c r="GT44" t="n">
+        <v>0.8665671129772152</v>
+      </c>
+      <c r="GU44" t="n">
+        <v>0.873303012090389</v>
+      </c>
+      <c r="GV44" t="n">
+        <v>0.8800332253374453</v>
+      </c>
+      <c r="GW44" t="n">
+        <v>0.8849000118998892</v>
+      </c>
+      <c r="GX44" t="n">
+        <v>0.886990540084397</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>0.8847927284871263</v>
+      </c>
+      <c r="GZ44" t="n">
+        <v>0.8796664185559365</v>
+      </c>
+      <c r="HA44" t="n">
+        <v>0.8723236223693399</v>
+      </c>
+      <c r="HB44" t="n">
+        <v>0.8643177519840455</v>
+      </c>
+      <c r="HC44" t="n">
+        <v>0.8551321884861436</v>
+      </c>
+      <c r="HD44" t="n">
+        <v>0.8444823614814357</v>
+      </c>
+      <c r="HE44" t="n">
+        <v>0.8323292889828212</v>
+      </c>
+      <c r="HF44" t="n">
+        <v>0.8199515968362037</v>
+      </c>
+      <c r="HG44" t="n">
+        <v>0.8090243456147659</v>
+      </c>
+      <c r="HH44" t="n">
+        <v>0.8004558701922326</v>
+      </c>
+      <c r="HI44" t="n">
+        <v>0.7931465324184501</v>
+      </c>
+      <c r="HJ44" t="n">
+        <v>0.7861200299475092</v>
+      </c>
+      <c r="HK44" t="n">
+        <v>0.7786755418200143</v>
+      </c>
+      <c r="HL44" t="n">
+        <v>0.7717852906154149</v>
+      </c>
+      <c r="HM44" t="n">
+        <v>0.7662007249420546</v>
+      </c>
+      <c r="HN44" t="n">
+        <v>0.7629795087758581</v>
+      </c>
+      <c r="HO44" t="n">
+        <v>0.7613544138132925</v>
+      </c>
+      <c r="HP44" t="n">
+        <v>0.7602025838547428</v>
+      </c>
+      <c r="HQ44" t="n">
+        <v>0.758962600896759</v>
+      </c>
+      <c r="HR44" t="n">
+        <v>0.7585237286638538</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>0.7594897746080056</v>
+      </c>
+      <c r="HT44" t="n">
+        <v>0.7626211482200912</v>
+      </c>
+      <c r="HU44" t="n">
+        <v>0.7664591357639233</v>
+      </c>
+      <c r="HV44" t="n">
+        <v>0.7703411962376548</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>0.7729914218602184</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>0.7759108538647084</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>0.7802305452463675</v>
+      </c>
+      <c r="HZ44" t="n">
+        <v>0.7869741448063319</v>
+      </c>
+      <c r="IA44" t="n">
+        <v>0.7946948290269668</v>
+      </c>
+      <c r="IB44" t="n">
+        <v>0.8029008198554404</v>
+      </c>
+      <c r="IC44" t="n">
+        <v>0.8104694137011075</v>
+      </c>
+      <c r="ID44" t="n">
+        <v>0.818682251903452</v>
+      </c>
+      <c r="IE44" t="n">
+        <v>0.8281010143518994</v>
+      </c>
+      <c r="IF44" t="n">
+        <v>0.8393570233494326</v>
+      </c>
+      <c r="IG44" t="n">
+        <v>0.8516821958630703</v>
+      </c>
+      <c r="IH44" t="n">
+        <v>0.8634836188653292</v>
+      </c>
+      <c r="II44" t="n">
+        <v>0.8734297690421432</v>
+      </c>
+      <c r="IJ44" t="n">
+        <v>0.8820824304449203</v>
+      </c>
+      <c r="IK44" t="n">
+        <v>0.8896675982843154</v>
+      </c>
+      <c r="IL44" t="n">
+        <v>0.8969005315637008</v>
+      </c>
+      <c r="IM44" t="n">
+        <v>0.9021152164226752</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>0.9050051195409156</v>
+      </c>
+      <c r="IO44" t="n">
+        <v>0.9041858890247827</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>0.9020861991491368</v>
+      </c>
+      <c r="IQ44" t="n">
+        <v>0.8999335877943779</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>0.8999732751152865</v>
+      </c>
+      <c r="IS44" t="n">
+        <v>0.9007461775484057</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>0.9014348052463593</v>
+      </c>
+      <c r="IU44" t="n">
+        <v>0.9002262098076139</v>
+      </c>
+      <c r="IV44" t="n">
+        <v>0.8981483762490001</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>0.8949868282232706</v>
+      </c>
+      <c r="IX44" t="n">
+        <v>0.8915170196587365</v>
+      </c>
+      <c r="IY44" t="n">
+        <v>0.8855360852688705</v>
+      </c>
+      <c r="IZ44" t="n">
+        <v>0.8766900405312967</v>
+      </c>
+      <c r="JA44" t="n">
+        <v>0.8637761475364132</v>
+      </c>
+      <c r="JB44" t="n">
+        <v>0.8495127521548829</v>
+      </c>
+      <c r="JC44" t="n">
+        <v>0.8347471847850649</v>
+      </c>
+      <c r="JD44" t="n">
+        <v>0.8219618303249948</v>
+      </c>
+      <c r="JE44" t="n">
+        <v>0.8096365490471313</v>
+      </c>
+      <c r="JF44" t="n">
+        <v>0.7979648122396052</v>
+      </c>
+      <c r="JG44" t="n">
+        <v>0.7861345283000178</v>
+      </c>
+      <c r="JH44" t="n">
+        <v>0.7757104225453428</v>
+      </c>
+      <c r="JI44" t="n">
+        <v>0.7675845628087361</v>
+      </c>
+      <c r="JJ44" t="n">
+        <v>0.7626532467564582</v>
+      </c>
+      <c r="JK44" t="n">
+        <v>0.759795784349964</v>
+      </c>
+      <c r="JL44" t="n">
+        <v>0.758224889349881</v>
+      </c>
+      <c r="JM44" t="n">
+        <v>0.7570804553598993</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>0.7569616559642222</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>0.7588832010296787</v>
+      </c>
+      <c r="JP44" t="n">
+        <v>0.7631847924276387</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>0.7696187733423299</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>0.7764726167301355</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>0.7831768901606359</v>
+      </c>
+      <c r="JT44" t="n">
+        <v>0.7891452418339019</v>
+      </c>
+      <c r="JU44" t="n">
+        <v>0.7949976709489079</v>
+      </c>
+      <c r="JV44" t="n">
+        <v>0.8009391373602878</v>
+      </c>
+      <c r="JW44" t="n">
+        <v>0.8063673165316421</v>
+      </c>
+      <c r="JX44" t="n">
+        <v>0.8104117397660013</v>
+      </c>
+      <c r="JY44" t="n">
+        <v>0.8124292638807378</v>
+      </c>
+      <c r="JZ44" t="n">
+        <v>0.8137203008302536</v>
+      </c>
+      <c r="KA44" t="n">
+        <v>0.8161522734254898</v>
+      </c>
+      <c r="KB44" t="n">
+        <v>0.8208206780540562</v>
+      </c>
+      <c r="KC44" t="n">
+        <v>0.8272132194124971</v>
+      </c>
+      <c r="KD44" t="n">
+        <v>0.833390973605321</v>
+      </c>
+      <c r="KE44" t="n">
+        <v>0.8384120307860712</v>
+      </c>
+      <c r="KF44" t="n">
+        <v>0.8433732226570071</v>
+      </c>
+      <c r="KG44" t="n">
+        <v>0.8497507901824527</v>
+      </c>
+      <c r="KH44" t="n">
+        <v>0.8578882926364866</v>
+      </c>
+      <c r="KI44" t="n">
+        <v>0.8668549583403834</v>
+      </c>
+      <c r="KJ44" t="n">
+        <v>0.8748034229892145</v>
+      </c>
+      <c r="KK44" t="n">
+        <v>0.8812302141845281</v>
+      </c>
+      <c r="KL44" t="n">
+        <v>0.8859422790918228</v>
+      </c>
+      <c r="KM44" t="n">
+        <v>0.8911665705870107</v>
+      </c>
+      <c r="KN44" t="n">
+        <v>0.897379899561461</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>0.9052557262135842</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>0.9121659288117675</v>
+      </c>
+      <c r="KQ44" t="n">
+        <v>0.9175242824564867</v>
+      </c>
+      <c r="KR44" t="n">
+        <v>0.9219464925186842</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>0.927227624849846</v>
+      </c>
+      <c r="KT44" t="n">
+        <v>0.9338933042265394</v>
+      </c>
+      <c r="KU44" t="n">
+        <v>0.9412068639864539</v>
+      </c>
+      <c r="KV44" t="n">
+        <v>0.9476174348108294</v>
+      </c>
+      <c r="KW44" t="n">
+        <v>0.9531890360566819</v>
+      </c>
+      <c r="KX44" t="n">
+        <v>0.9579103192463382</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>0.9630042715880529</v>
+      </c>
+      <c r="KZ44" t="n">
+        <v>0.9686540013378716</v>
+      </c>
+      <c r="LA44" t="n">
+        <v>0.9739307744976349</v>
+      </c>
+      <c r="LB44" t="n">
+        <v>0.9772569023959179</v>
+      </c>
+      <c r="LC44" t="n">
+        <v>0.9779652312463807</v>
+      </c>
+      <c r="LD44" t="n">
+        <v>0.9765438332402834</v>
+      </c>
+      <c r="LE44" t="n">
+        <v>0.9747685573936246</v>
+      </c>
+      <c r="LF44" t="n">
+        <v>0.9731764836353939</v>
+      </c>
+      <c r="LG44" t="n">
+        <v>0.971614798055066</v>
+      </c>
+      <c r="LH44" t="n">
+        <v>0.9684555342184682</v>
+      </c>
+      <c r="LI44" t="n">
+        <v>0.9640044570178326</v>
+      </c>
+      <c r="LJ44" t="n">
+        <v>0.9592893019638902</v>
+      </c>
+      <c r="LK44" t="n">
+        <v>0.9570667784020085</v>
+      </c>
+      <c r="LL44" t="n">
+        <v>0.9578259853818648</v>
+      </c>
+      <c r="LM44" t="n">
+        <v>0.9614858618333046</v>
+      </c>
+      <c r="LN44" t="n">
+        <v>0.9662560290003687</v>
+      </c>
+      <c r="LO44" t="n">
+        <v>0.9724245465193385</v>
+      </c>
+      <c r="LP44" t="n">
+        <v>0.9805545310360828</v>
+      </c>
+      <c r="LQ44" t="n">
+        <v>0.9926319434068368</v>
+      </c>
+      <c r="LR44" t="n">
+        <v>1.008926684480603</v>
+      </c>
+      <c r="LS44" t="n">
+        <v>1.0295072220775874</v>
+      </c>
+      <c r="LT44" t="n">
+        <v>1.052754838302351</v>
+      </c>
+      <c r="LU44" t="n">
+        <v>1.076895523058219</v>
+      </c>
+      <c r="LV44" t="n">
+        <v>1.101526419821772</v>
+      </c>
+      <c r="LW44" t="n">
+        <v>1.127072675959054</v>
+      </c>
+      <c r="LX44" t="n">
+        <v>1.1541323417179903</v>
+      </c>
+      <c r="LY44" t="n">
+        <v>1.1823477345502613</v>
+      </c>
+      <c r="LZ44" t="n">
+        <v>1.2113076900885544</v>
+      </c>
+      <c r="MA44" t="n">
+        <v>1.2396207684049296</v>
+      </c>
+      <c r="MB44" t="n">
+        <v>1.2675181061478094</v>
+      </c>
+      <c r="MC44" t="n">
+        <v>1.2940641048583088</v>
+      </c>
+      <c r="MD44" t="n">
+        <v>1.3178114873664668</v>
+      </c>
+      <c r="ME44" t="n">
+        <v>1.337101335040099</v>
+      </c>
+      <c r="MF44" t="n">
+        <v>1.3497945461101355</v>
+      </c>
+      <c r="MG44" t="n">
+        <v>1.3562875895175823</v>
+      </c>
+      <c r="MH44" t="n">
+        <v>1.3604022664997428</v>
+      </c>
+      <c r="MI44" t="n">
+        <v>1.3663689322303838</v>
+      </c>
+      <c r="MJ44" t="n">
+        <v>1.3758151553038438</v>
+      </c>
+      <c r="MK44" t="n">
+        <v>1.3876440142416104</v>
+      </c>
+      <c r="ML44" t="n">
+        <v>1.3986491542360167</v>
+      </c>
+      <c r="MM44" t="n">
+        <v>1.4063455447969324</v>
+      </c>
+      <c r="MN44" t="n">
+        <v>1.4096642429198343</v>
+      </c>
+      <c r="MO44" t="n">
+        <v>1.4108474965622873</v>
+      </c>
+      <c r="MP44" t="n">
+        <v>1.4103090118866803</v>
+      </c>
+      <c r="MQ44" t="n">
+        <v>1.4093322572926525</v>
+      </c>
+      <c r="MR44" t="n">
+        <v>1.4061032705847571</v>
+      </c>
+      <c r="MS44" t="n">
+        <v>1.401660879502563</v>
+      </c>
+      <c r="MT44" t="n">
+        <v>1.396336542171317</v>
+      </c>
+      <c r="MU44" t="n">
+        <v>1.3930680683513819</v>
+      </c>
+      <c r="MV44" t="n">
+        <v>1.3919674270544808</v>
+      </c>
+      <c r="MW44" t="n">
+        <v>1.3933764197780099</v>
+      </c>
+      <c r="MX44" t="n">
+        <v>1.3949585806306257</v>
+      </c>
+      <c r="MY44" t="n">
+        <v>1.3960036359913857</v>
+      </c>
+      <c r="MZ44" t="n">
+        <v>1.3962793940403844</v>
+      </c>
+      <c r="NA44" t="n">
+        <v>1.3975423238777465</v>
+      </c>
+      <c r="NB44" t="n">
+        <v>1.400313194797147</v>
+      </c>
+      <c r="NC44" t="n">
+        <v>1.4038017421411924</v>
+      </c>
+      <c r="ND44" t="n">
+        <v>1.40571810362966</v>
+      </c>
+      <c r="NE44" t="n">
+        <v>1.4051578714920123</v>
+      </c>
+      <c r="NF44" t="n">
+        <v>1.4033182747185486</v>
+      </c>
+      <c r="NG44" t="n">
+        <v>1.4021587268764888</v>
+      </c>
+      <c r="NH44" t="n">
+        <v>1.4033129897956143</v>
+      </c>
+      <c r="NI44" t="n">
+        <v>1.4047666811785076</v>
+      </c>
+      <c r="NJ44" t="n">
+        <v>1.4053819308633655</v>
+      </c>
+      <c r="NK44" t="n">
+        <v>1.403350316376937</v>
+      </c>
+      <c r="NL44" t="n">
+        <v>1.4005204932638655</v>
+      </c>
+      <c r="NM44" t="n">
+        <v>1.3985511484588753</v>
+      </c>
+      <c r="NN44" t="n">
+        <v>1.398846645168239</v>
+      </c>
+      <c r="NO44" t="n">
+        <v>1.4005986010829754</v>
+      </c>
+      <c r="NP44" t="n">
+        <v>1.4015682774452156</v>
+      </c>
+      <c r="NQ44" t="n">
+        <v>1.4005760499768498</v>
+      </c>
+      <c r="NR44" t="n">
+        <v>1.3989180193846595</v>
+      </c>
+      <c r="NS44" t="n">
+        <v>1.3982881900217732</v>
+      </c>
+      <c r="NT44" t="n">
+        <v>1.4000399043816567</v>
+      </c>
+      <c r="NU44" t="n">
+        <v>1.4027820731792413</v>
+      </c>
+      <c r="NV44" t="n">
+        <v>1.4046745027054282</v>
+      </c>
+      <c r="NW44" t="n">
+        <v>1.404865331960279</v>
+      </c>
+      <c r="NX44" t="n">
+        <v>1.4039944213076145</v>
+      </c>
+      <c r="NY44" t="n">
+        <v>1.4047058594438815</v>
+      </c>
+      <c r="NZ44" t="n">
+        <v>1.4075117400402677</v>
+      </c>
+      <c r="OA44" t="n">
+        <v>1.4108265203351762</v>
+      </c>
+      <c r="OB44" t="n">
+        <v>1.4124324103233687</v>
+      </c>
+      <c r="OC44" t="n">
+        <v>1.4111916714927764</v>
+      </c>
+      <c r="OD44" t="n">
+        <v>1.4078480004383769</v>
+      </c>
+      <c r="OE44" t="n">
+        <v>1.4044452417659936</v>
+      </c>
+      <c r="OF44" t="n">
+        <v>1.4014518465873258</v>
+      </c>
+      <c r="OG44" t="n">
+        <v>1.3983491038796088</v>
+      </c>
+      <c r="OH44" t="n">
+        <v>1.3928444668688946</v>
+      </c>
+      <c r="OI44" t="n">
+        <v>1.3840031076801367</v>
+      </c>
+      <c r="OJ44" t="n">
+        <v>1.3736403698787587</v>
+      </c>
+      <c r="OK44" t="n">
+        <v>1.3635359332862917</v>
+      </c>
+      <c r="OL44" t="n">
+        <v>1.354695571114913</v>
+      </c>
+      <c r="OM44" t="n">
+        <v>1.3459927696004976</v>
+      </c>
+      <c r="ON44" t="n">
+        <v>1.3351529290883</v>
+      </c>
+      <c r="OO44" t="n">
+        <v>1.3223432834809727</v>
+      </c>
+      <c r="OP44" t="n">
+        <v>1.308084258866027</v>
+      </c>
+      <c r="OQ44" t="n">
+        <v>1.2947701124971924</v>
+      </c>
+      <c r="OR44" t="n">
+        <v>1.2833156388316036</v>
+      </c>
+      <c r="OS44" t="n">
+        <v>1.2730955173274758</v>
+      </c>
+      <c r="OT44" t="n">
+        <v>1.2619590112763863</v>
+      </c>
+      <c r="OU44" t="n">
+        <v>1.2494656659846302</v>
+      </c>
+      <c r="OV44" t="n">
+        <v>1.2362460229546128</v>
+      </c>
+      <c r="OW44" t="n">
+        <v>1.2248645074235975</v>
+      </c>
+      <c r="OX44" t="n">
+        <v>1.2152322077989381</v>
+      </c>
+      <c r="OY44" t="n">
+        <v>1.206829848735376</v>
+      </c>
+      <c r="OZ44" t="n">
+        <v>1.197229993769401</v>
+      </c>
+      <c r="PA44" t="n">
+        <v>1.1861835300044383</v>
+      </c>
+      <c r="PB44" t="n">
+        <v>1.1736514923423573</v>
+      </c>
+      <c r="PC44" t="n">
+        <v>1.161922571253205</v>
+      </c>
+      <c r="PD44" t="n">
+        <v>1.150999390246742</v>
+      </c>
+      <c r="PE44" t="n">
+        <v>1.1399437017820215</v>
+      </c>
+      <c r="PF44" t="n">
+        <v>1.1264070835924338</v>
+      </c>
+      <c r="PG44" t="n">
+        <v>1.1102450205621504</v>
+      </c>
+      <c r="PH44" t="n">
+        <v>1.0916112825565083</v>
+      </c>
+      <c r="PI44" t="n">
+        <v>1.0728581168668199</v>
+      </c>
+      <c r="PJ44" t="n">
+        <v>1.0552486782924233</v>
+      </c>
+      <c r="PK44" t="n">
+        <v>1.0388975600257655</v>
+      </c>
+      <c r="PL44" t="n">
+        <v>1.021896698651641</v>
+      </c>
+      <c r="PM44" t="n">
+        <v>1.0044742189519504</v>
+      </c>
+      <c r="PN44" t="n">
+        <v>0.9875274082025015</v>
+      </c>
+      <c r="PO44" t="n">
+        <v>0.9728212591256715</v>
+      </c>
+      <c r="PP44" t="n">
+        <v>0.9612449871467272</v>
+      </c>
+      <c r="PQ44" t="n">
+        <v>0.9518807500071299</v>
+      </c>
+      <c r="PR44" t="n">
+        <v>0.9430118879647679</v>
+      </c>
+      <c r="PS44" t="n">
+        <v>0.9338488542511926</v>
+      </c>
+      <c r="PT44" t="n">
+        <v>0.9247705390128398</v>
+      </c>
+      <c r="PU44" t="n">
+        <v>0.917588759388373</v>
+      </c>
+      <c r="PV44" t="n">
+        <v>0.9127742535240416</v>
+      </c>
+      <c r="PW44" t="n">
+        <v>0.9096627295758744</v>
+      </c>
+      <c r="PX44" t="n">
+        <v>0.9063755133676105</v>
+      </c>
+      <c r="PY44" t="n">
+        <v>0.9024033094770721</v>
+      </c>
+      <c r="PZ44" t="n">
+        <v>0.8982581261950094</v>
+      </c>
+      <c r="QA44" t="n">
+        <v>0.8952215365571349</v>
+      </c>
+      <c r="QB44" t="n">
+        <v>0.8937000559253238</v>
+      </c>
+      <c r="QC44" t="n">
+        <v>0.8930429390305141</v>
+      </c>
+      <c r="QD44" t="n">
+        <v>0.8921562329483209</v>
+      </c>
+      <c r="QE44" t="n">
+        <v>0.8902408440900287</v>
+      </c>
+      <c r="QF44" t="n">
+        <v>0.8881347530346951</v>
+      </c>
+      <c r="QG44" t="n">
+        <v>0.8868700742259381</v>
+      </c>
+      <c r="QH44" t="n">
+        <v>0.8874703116082795</v>
+      </c>
+      <c r="QI44" t="n">
+        <v>0.8887893766375403</v>
+      </c>
+      <c r="QJ44" t="n">
+        <v>0.8901677981864495</v>
+      </c>
+      <c r="QK44" t="n">
+        <v>0.8903688698483522</v>
+      </c>
+      <c r="QL44" t="n">
+        <v>0.8903826909018295</v>
+      </c>
+      <c r="QM44" t="n">
+        <v>0.891443876677886</v>
+      </c>
+      <c r="QN44" t="n">
+        <v>0.8942370619545484</v>
+      </c>
+      <c r="QO44" t="n">
+        <v>0.8982440453071766</v>
+      </c>
+      <c r="QP44" t="n">
+        <v>0.9020167134856405</v>
+      </c>
+      <c r="QQ44" t="n">
+        <v>0.9047588749267561</v>
+      </c>
+      <c r="QR44" t="n">
+        <v>0.9070112914886327</v>
+      </c>
+      <c r="QS44" t="n">
+        <v>0.9097498489858231</v>
+      </c>
+      <c r="QT44" t="n">
+        <v>0.9138359722303809</v>
+      </c>
+      <c r="QU44" t="n">
+        <v>0.9183217112679547</v>
+      </c>
+      <c r="QV44" t="n">
+        <v>0.921894232745338</v>
+      </c>
+      <c r="QW44" t="n">
+        <v>0.9230735951209754</v>
+      </c>
+      <c r="QX44" t="n">
+        <v>0.9226845697196686</v>
+      </c>
+      <c r="QY44" t="n">
+        <v>0.9218157624025308</v>
+      </c>
+      <c r="QZ44" t="n">
+        <v>0.920751680871504</v>
+      </c>
+      <c r="RA44" t="n">
+        <v>0.9186213157900514</v>
+      </c>
+      <c r="RB44" t="n">
+        <v>0.9141092493050671</v>
+      </c>
+      <c r="RC44" t="n">
+        <v>0.9064989898298381</v>
+      </c>
+      <c r="RD44" t="n">
+        <v>0.8971203100788812</v>
+      </c>
+      <c r="RE44" t="n">
+        <v>0.8873649290033012</v>
+      </c>
+      <c r="RF44" t="n">
+        <v>0.8772053310014715</v>
+      </c>
+      <c r="RG44" t="n">
+        <v>0.8672985601094185</v>
+      </c>
+      <c r="RH44" t="n">
+        <v>0.8571280492628668</v>
+      </c>
+      <c r="RI44" t="n">
+        <v>0.8474857928202152</v>
+      </c>
+      <c r="RJ44" t="n">
+        <v>0.8377939509979747</v>
+      </c>
+      <c r="RK44" t="n">
+        <v>0.8289904498193555</v>
+      </c>
+      <c r="RL44" t="n">
+        <v>0.8204279191705762</v>
+      </c>
+      <c r="RM44" t="n">
+        <v>0.8125453869828698</v>
+      </c>
+      <c r="RN44" t="n">
+        <v>0.8035489126133476</v>
+      </c>
+      <c r="RO44" t="n">
+        <v>0.7936413044725593</v>
+      </c>
+      <c r="RP44" t="n">
+        <v>0.7834253047113957</v>
+      </c>
+      <c r="RQ44" t="n">
+        <v>0.7735834543868133</v>
+      </c>
+      <c r="RR44" t="n">
+        <v>0.7647690925631135</v>
+      </c>
+      <c r="RS44" t="n">
+        <v>0.7559356955632616</v>
+      </c>
+      <c r="RT44" t="n">
+        <v>0.7470357182111387</v>
+      </c>
+      <c r="RU44" t="n">
+        <v>0.7371157861389735</v>
+      </c>
+      <c r="RV44" t="n">
+        <v>0.7270363881678792</v>
+      </c>
+      <c r="RW44" t="n">
+        <v>0.7174562646966745</v>
+      </c>
+      <c r="RX44" t="n">
+        <v>0.7084338972700628</v>
+      </c>
+      <c r="RY44" t="n">
+        <v>0.7002111308632698</v>
+      </c>
+      <c r="RZ44" t="n">
+        <v>0.6914508686956576</v>
+      </c>
+      <c r="SA44" t="n">
+        <v>0.6824460163016458</v>
+      </c>
+      <c r="SB44" t="n">
+        <v>0.6727197537293816</v>
+      </c>
+      <c r="SC44" t="n">
+        <v>0.6637458182304867</v>
+      </c>
+      <c r="SD44" t="n">
+        <v>0.6550269781796748</v>
+      </c>
+      <c r="SE44" t="n">
+        <v>0.6469641380471494</v>
+      </c>
+      <c r="SF44" t="n">
+        <v>0.6383070441407585</v>
+      </c>
+      <c r="SG44" t="n">
+        <v>0.6301600011898215</v>
+      </c>
+      <c r="SH44" t="n">
+        <v>0.6214530048756363</v>
+      </c>
+      <c r="SI44" t="n">
+        <v>0.6134802232233074</v>
+      </c>
+      <c r="SJ44" t="n">
+        <v>0.6060400564575877</v>
+      </c>
+      <c r="SK44" t="n">
+        <v>0.5994588300375776</v>
+      </c>
+      <c r="SL44" t="n">
+        <v>0.5925281440297288</v>
+      </c>
+      <c r="SM44" t="n">
+        <v>0.5852858431347462</v>
+      </c>
+      <c r="SN44" t="n">
+        <v>0.5777639540697739</v>
+      </c>
+      <c r="SO44" t="n">
+        <v>0.571370155291179</v>
+      </c>
+      <c r="SP44" t="n">
+        <v>0.5656076230987285</v>
+      </c>
+      <c r="SQ44" t="n">
+        <v>0.5606156980064345</v>
+      </c>
+      <c r="SR44" t="n">
+        <v>0.5552133817271532</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.4690950752884858</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.46832400250517475</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4677838262081019</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4670998761137896</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4666217404317536</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.46662249694134633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.46752925248468535</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.4678444906252285</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.4687523528711091</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.46894548191327906</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4708599648902528</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.47237049894480876</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4761071499283864</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.4787781801121542</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.48322470807952894</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.4855680906233519</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.4895453570313853</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.49228002807119464</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.4964478168134327</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.49860685275777517</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.5009036620428393</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.5013785755266561</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.502784980631274</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.5035343291944371</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.5052605610748301</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.5052641958090496</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.5050472013239065</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.5030988330251832</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.5021656016713427</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.5008112063989536</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.501022113087558</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.4999573912228203</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.49958735230957024</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.49809995123838285</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.49850068364255545</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.4990908846067273</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.5014618625197824</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.5029506309689104</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.5049066798394966</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.5058610161137395</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.5086421664757181</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.511951973798071</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.5170616370499153</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.5212920307160449</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.5260612290420441</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.5299418512891015</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.5351379348057923</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.5401589199237214</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0.546376209998345</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0.551705472319938</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0.5571342190927032</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0.561781607808476</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0.5677927997735103</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0.5743942326475198</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0.5821897737137692</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0.5888988882423298</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0.5949372906872267</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0.5992966980297706</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>0.6045442233469391</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>0.6101414482832724</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>0.6178005436867081</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>0.6254697803222421</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>0.6341170685234444</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>0.6428056401627902</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>0.6535566761719213</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>0.6652214493470008</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>0.6783998245265163</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>0.6898764480766116</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>0.6996243799752375</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>0.7066105638259695</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>0.7132886487951473</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>0.7193389857606458</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0.7255717509174198</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>0.7304278847641342</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>0.7349931481308477</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>0.7388441126256676</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>0.7439029059394877</v>
+      </c>
+      <c r="BZ45" t="n">
+        <v>0.7490987824539438</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>0.7542090678420058</v>
+      </c>
+      <c r="CB45" t="n">
+        <v>0.7565240407330733</v>
+      </c>
+      <c r="CC45" t="n">
+        <v>0.756642132857344</v>
+      </c>
+      <c r="CD45" t="n">
+        <v>0.754555689111372</v>
+      </c>
+      <c r="CE45" t="n">
+        <v>0.7530752794923002</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>0.7521522789639701</v>
+      </c>
+      <c r="CG45" t="n">
+        <v>0.7523613662225812</v>
+      </c>
+      <c r="CH45" t="n">
+        <v>0.7514396532292678</v>
+      </c>
+      <c r="CI45" t="n">
+        <v>0.7492112577648761</v>
+      </c>
+      <c r="CJ45" t="n">
+        <v>0.744799686943287</v>
+      </c>
+      <c r="CK45" t="n">
+        <v>0.7396246074171037</v>
+      </c>
+      <c r="CL45" t="n">
+        <v>0.7328020686331744</v>
+      </c>
+      <c r="CM45" t="n">
+        <v>0.724358719647046</v>
+      </c>
+      <c r="CN45" t="n">
+        <v>0.712659436499527</v>
+      </c>
+      <c r="CO45" t="n">
+        <v>0.6989739019352332</v>
+      </c>
+      <c r="CP45" t="n">
+        <v>0.6841194713547339</v>
+      </c>
+      <c r="CQ45" t="n">
+        <v>0.6705169718036926</v>
+      </c>
+      <c r="CR45" t="n">
+        <v>0.6585254068053881</v>
+      </c>
+      <c r="CS45" t="n">
+        <v>0.6483676997496106</v>
+      </c>
+      <c r="CT45" t="n">
+        <v>0.6381325414337836</v>
+      </c>
+      <c r="CU45" t="n">
+        <v>0.6282996088345292</v>
+      </c>
+      <c r="CV45" t="n">
+        <v>0.6182502622384723</v>
+      </c>
+      <c r="CW45" t="n">
+        <v>0.6098104176909097</v>
+      </c>
+      <c r="CX45" t="n">
+        <v>0.6022982524721268</v>
+      </c>
+      <c r="CY45" t="n">
+        <v>0.5961243841380088</v>
+      </c>
+      <c r="CZ45" t="n">
+        <v>0.5893864121118417</v>
+      </c>
+      <c r="DA45" t="n">
+        <v>0.5827348247124643</v>
+      </c>
+      <c r="DB45" t="n">
+        <v>0.5757068892232113</v>
+      </c>
+      <c r="DC45" t="n">
+        <v>0.570365309282596</v>
+      </c>
+      <c r="DD45" t="n">
+        <v>0.5662298185978485</v>
+      </c>
+      <c r="DE45" t="n">
+        <v>0.5636018761640089</v>
+      </c>
+      <c r="DF45" t="n">
+        <v>0.5605351962439822</v>
+      </c>
+      <c r="DG45" t="n">
+        <v>0.5571859924683978</v>
+      </c>
+      <c r="DH45" t="n">
+        <v>0.5532283480184661</v>
+      </c>
+      <c r="DI45" t="n">
+        <v>0.5502268662338671</v>
+      </c>
+      <c r="DJ45" t="n">
+        <v>0.5479325227850824</v>
+      </c>
+      <c r="DK45" t="n">
+        <v>0.5466902034534297</v>
+      </c>
+      <c r="DL45" t="n">
+        <v>0.5448390973406227</v>
+      </c>
+      <c r="DM45" t="n">
+        <v>0.5427978846149536</v>
+      </c>
+      <c r="DN45" t="n">
+        <v>0.5399592585505745</v>
+      </c>
+      <c r="DO45" t="n">
+        <v>0.5380986118445941</v>
+      </c>
+      <c r="DP45" t="n">
+        <v>0.5368098374274703</v>
+      </c>
+      <c r="DQ45" t="n">
+        <v>0.5362901326606195</v>
+      </c>
+      <c r="DR45" t="n">
+        <v>0.5348879799024805</v>
+      </c>
+      <c r="DS45" t="n">
+        <v>0.5330681944714675</v>
+      </c>
+      <c r="DT45" t="n">
+        <v>0.5305268340912513</v>
+      </c>
+      <c r="DU45" t="n">
+        <v>0.5290438177591065</v>
+      </c>
+      <c r="DV45" t="n">
+        <v>0.5282355887722405</v>
+      </c>
+      <c r="DW45" t="n">
+        <v>0.5284741745354656</v>
+      </c>
+      <c r="DX45" t="n">
+        <v>0.5281077644568827</v>
+      </c>
+      <c r="DY45" t="n">
+        <v>0.5272803069034318</v>
+      </c>
+      <c r="DZ45" t="n">
+        <v>0.5259051563868666</v>
+      </c>
+      <c r="EA45" t="n">
+        <v>0.5251922125477452</v>
+      </c>
+      <c r="EB45" t="n">
+        <v>0.5254461452852509</v>
+      </c>
+      <c r="EC45" t="n">
+        <v>0.5264372892841438</v>
+      </c>
+      <c r="ED45" t="n">
+        <v>0.5268372678089348</v>
+      </c>
+      <c r="EE45" t="n">
+        <v>0.5264741737822679</v>
+      </c>
+      <c r="EF45" t="n">
+        <v>0.5255721294042137</v>
+      </c>
+      <c r="EG45" t="n">
+        <v>0.5256856464215197</v>
+      </c>
+      <c r="EH45" t="n">
+        <v>0.5266221613018929</v>
+      </c>
+      <c r="EI45" t="n">
+        <v>0.5282924492714469</v>
+      </c>
+      <c r="EJ45" t="n">
+        <v>0.5292543632740597</v>
+      </c>
+      <c r="EK45" t="n">
+        <v>0.5293810797192527</v>
+      </c>
+      <c r="EL45" t="n">
+        <v>0.5287826669543014</v>
+      </c>
+      <c r="EM45" t="n">
+        <v>0.5287918445816723</v>
+      </c>
+      <c r="EN45" t="n">
+        <v>0.5296357927472938</v>
+      </c>
+      <c r="EO45" t="n">
+        <v>0.5309259980027128</v>
+      </c>
+      <c r="EP45" t="n">
+        <v>0.5314658055282127</v>
+      </c>
+      <c r="EQ45" t="n">
+        <v>0.5310062235201605</v>
+      </c>
+      <c r="ER45" t="n">
+        <v>0.5303995796770806</v>
+      </c>
+      <c r="ES45" t="n">
+        <v>0.5305103569989015</v>
+      </c>
+      <c r="ET45" t="n">
+        <v>0.5319364723437624</v>
+      </c>
+      <c r="EU45" t="n">
+        <v>0.5337609744351487</v>
+      </c>
+      <c r="EV45" t="n">
+        <v>0.5353401001504855</v>
+      </c>
+      <c r="EW45" t="n">
+        <v>0.535916779600183</v>
+      </c>
+      <c r="EX45" t="n">
+        <v>0.5363896650164178</v>
+      </c>
+      <c r="EY45" t="n">
+        <v>0.5373584229593109</v>
+      </c>
+      <c r="EZ45" t="n">
+        <v>0.5398397083628523</v>
+      </c>
+      <c r="FA45" t="n">
+        <v>0.5427405956801189</v>
+      </c>
+      <c r="FB45" t="n">
+        <v>0.5456292385195396</v>
+      </c>
+      <c r="FC45" t="n">
+        <v>0.5476832177278165</v>
+      </c>
+      <c r="FD45" t="n">
+        <v>0.5501880215640541</v>
+      </c>
+      <c r="FE45" t="n">
+        <v>0.5538205498938135</v>
+      </c>
+      <c r="FF45" t="n">
+        <v>0.5597105460509708</v>
+      </c>
+      <c r="FG45" t="n">
+        <v>0.5670595949334637</v>
+      </c>
+      <c r="FH45" t="n">
+        <v>0.5753960862579114</v>
+      </c>
+      <c r="FI45" t="n">
+        <v>0.5841127426737972</v>
+      </c>
+      <c r="FJ45" t="n">
+        <v>0.5941418096642755</v>
+      </c>
+      <c r="FK45" t="n">
+        <v>0.6067853725491825</v>
+      </c>
+      <c r="FL45" t="n">
+        <v>0.6220210827265732</v>
+      </c>
+      <c r="FM45" t="n">
+        <v>0.6399593273789855</v>
+      </c>
+      <c r="FN45" t="n">
+        <v>0.6586415915152666</v>
+      </c>
+      <c r="FO45" t="n">
+        <v>0.677875801579285</v>
+      </c>
+      <c r="FP45" t="n">
+        <v>0.6975681601722669</v>
+      </c>
+      <c r="FQ45" t="n">
+        <v>0.719192825834776</v>
+      </c>
+      <c r="FR45" t="n">
+        <v>0.7422041514417586</v>
+      </c>
+      <c r="FS45" t="n">
+        <v>0.7649978408737891</v>
+      </c>
+      <c r="FT45" t="n">
+        <v>0.7836525896888432</v>
+      </c>
+      <c r="FU45" t="n">
+        <v>0.7949263555606146</v>
+      </c>
+      <c r="FV45" t="n">
+        <v>0.7993903905929906</v>
+      </c>
+      <c r="FW45" t="n">
+        <v>0.8012316724979918</v>
+      </c>
+      <c r="FX45" t="n">
+        <v>0.8037957595703928</v>
+      </c>
+      <c r="FY45" t="n">
+        <v>0.8081744010405576</v>
+      </c>
+      <c r="FZ45" t="n">
+        <v>0.8122220484617106</v>
+      </c>
+      <c r="GA45" t="n">
+        <v>0.8152749703220755</v>
+      </c>
+      <c r="GB45" t="n">
+        <v>0.8175829494608502</v>
+      </c>
+      <c r="GC45" t="n">
+        <v>0.8214257847225888</v>
+      </c>
+      <c r="GD45" t="n">
+        <v>0.8267239669833303</v>
+      </c>
+      <c r="GE45" t="n">
+        <v>0.8331061482472134</v>
+      </c>
+      <c r="GF45" t="n">
+        <v>0.8381787935196569</v>
+      </c>
+      <c r="GG45" t="n">
+        <v>0.8415152148423501</v>
+      </c>
+      <c r="GH45" t="n">
+        <v>0.8427266285197009</v>
+      </c>
+      <c r="GI45" t="n">
+        <v>0.8427883227986969</v>
+      </c>
+      <c r="GJ45" t="n">
+        <v>0.8423777582390666</v>
+      </c>
+      <c r="GK45" t="n">
+        <v>0.8410568418171307</v>
+      </c>
+      <c r="GL45" t="n">
+        <v>0.8390587470279149</v>
+      </c>
+      <c r="GM45" t="n">
+        <v>0.8359972979283002</v>
+      </c>
+      <c r="GN45" t="n">
+        <v>0.8339712769844405</v>
+      </c>
+      <c r="GO45" t="n">
+        <v>0.8342488195370088</v>
+      </c>
+      <c r="GP45" t="n">
+        <v>0.8384371826641699</v>
+      </c>
+      <c r="GQ45" t="n">
+        <v>0.8450180042035766</v>
+      </c>
+      <c r="GR45" t="n">
+        <v>0.8526348212648481</v>
+      </c>
+      <c r="GS45" t="n">
+        <v>0.8594019713658838</v>
+      </c>
+      <c r="GT45" t="n">
+        <v>0.8661159465883431</v>
+      </c>
+      <c r="GU45" t="n">
+        <v>0.872802576318103</v>
+      </c>
+      <c r="GV45" t="n">
+        <v>0.879523571811017</v>
+      </c>
+      <c r="GW45" t="n">
+        <v>0.8844283431832385</v>
+      </c>
+      <c r="GX45" t="n">
+        <v>0.8864412134146412</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>0.8842544390557854</v>
+      </c>
+      <c r="GZ45" t="n">
+        <v>0.8791205276505402</v>
+      </c>
+      <c r="HA45" t="n">
+        <v>0.8718479312686633</v>
+      </c>
+      <c r="HB45" t="n">
+        <v>0.8639318072310223</v>
+      </c>
+      <c r="HC45" t="n">
+        <v>0.8548196815242239</v>
+      </c>
+      <c r="HD45" t="n">
+        <v>0.844314972439557</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>0.832255913236154</v>
+      </c>
+      <c r="HF45" t="n">
+        <v>0.8199622053040315</v>
+      </c>
+      <c r="HG45" t="n">
+        <v>0.8090592037692821</v>
+      </c>
+      <c r="HH45" t="n">
+        <v>0.8004871556458778</v>
+      </c>
+      <c r="HI45" t="n">
+        <v>0.793218545080422</v>
+      </c>
+      <c r="HJ45" t="n">
+        <v>0.7862590464009525</v>
+      </c>
+      <c r="HK45" t="n">
+        <v>0.7788650282368388</v>
+      </c>
+      <c r="HL45" t="n">
+        <v>0.7720038134347037</v>
+      </c>
+      <c r="HM45" t="n">
+        <v>0.7664017820036866</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>0.7631904088299738</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>0.7615448580668529</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>0.7604291232610003</v>
+      </c>
+      <c r="HQ45" t="n">
+        <v>0.759174007107449</v>
+      </c>
+      <c r="HR45" t="n">
+        <v>0.7587478319896934</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>0.7597558013346805</v>
+      </c>
+      <c r="HT45" t="n">
+        <v>0.7628896102275623</v>
+      </c>
+      <c r="HU45" t="n">
+        <v>0.7667108527272808</v>
+      </c>
+      <c r="HV45" t="n">
+        <v>0.7704706445163843</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>0.773089838556082</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>0.7759962270452084</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>0.7803330540577117</v>
+      </c>
+      <c r="HZ45" t="n">
+        <v>0.7870558623103601</v>
+      </c>
+      <c r="IA45" t="n">
+        <v>0.7947426494063408</v>
+      </c>
+      <c r="IB45" t="n">
+        <v>0.802904243776256</v>
+      </c>
+      <c r="IC45" t="n">
+        <v>0.8104518794494037</v>
+      </c>
+      <c r="ID45" t="n">
+        <v>0.818628666381048</v>
+      </c>
+      <c r="IE45" t="n">
+        <v>0.8279893628259151</v>
+      </c>
+      <c r="IF45" t="n">
+        <v>0.8391905185755187</v>
+      </c>
+      <c r="IG45" t="n">
+        <v>0.8514508929257636</v>
+      </c>
+      <c r="IH45" t="n">
+        <v>0.863208677075757</v>
+      </c>
+      <c r="II45" t="n">
+        <v>0.8730347003960796</v>
+      </c>
+      <c r="IJ45" t="n">
+        <v>0.8816118349784421</v>
+      </c>
+      <c r="IK45" t="n">
+        <v>0.8891292190879406</v>
+      </c>
+      <c r="IL45" t="n">
+        <v>0.8963773403480283</v>
+      </c>
+      <c r="IM45" t="n">
+        <v>0.9015687927225534</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>0.9044802916155339</v>
+      </c>
+      <c r="IO45" t="n">
+        <v>0.9036402093649598</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>0.9015785029017884</v>
+      </c>
+      <c r="IQ45" t="n">
+        <v>0.8993794065069466</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>0.8994633143582657</v>
+      </c>
+      <c r="IS45" t="n">
+        <v>0.9002355677154266</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>0.9009367035190363</v>
+      </c>
+      <c r="IU45" t="n">
+        <v>0.899747612443192</v>
+      </c>
+      <c r="IV45" t="n">
+        <v>0.8976482690047429</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>0.8945260337724198</v>
+      </c>
+      <c r="IX45" t="n">
+        <v>0.8910394193970398</v>
+      </c>
+      <c r="IY45" t="n">
+        <v>0.8851228648474342</v>
+      </c>
+      <c r="IZ45" t="n">
+        <v>0.8763200037063665</v>
+      </c>
+      <c r="JA45" t="n">
+        <v>0.8634675525057856</v>
+      </c>
+      <c r="JB45" t="n">
+        <v>0.8492634252043186</v>
+      </c>
+      <c r="JC45" t="n">
+        <v>0.8346079182323085</v>
+      </c>
+      <c r="JD45" t="n">
+        <v>0.8219135848847083</v>
+      </c>
+      <c r="JE45" t="n">
+        <v>0.8096964410624381</v>
+      </c>
+      <c r="JF45" t="n">
+        <v>0.7980686154607689</v>
+      </c>
+      <c r="JG45" t="n">
+        <v>0.7862783144242286</v>
+      </c>
+      <c r="JH45" t="n">
+        <v>0.7758435927717676</v>
+      </c>
+      <c r="JI45" t="n">
+        <v>0.7677215924391884</v>
+      </c>
+      <c r="JJ45" t="n">
+        <v>0.7627855476040817</v>
+      </c>
+      <c r="JK45" t="n">
+        <v>0.7599631615888617</v>
+      </c>
+      <c r="JL45" t="n">
+        <v>0.7584415768308876</v>
+      </c>
+      <c r="JM45" t="n">
+        <v>0.7573047899701136</v>
+      </c>
+      <c r="JN45" t="n">
+        <v>0.7571450512980221</v>
+      </c>
+      <c r="JO45" t="n">
+        <v>0.7590243668413527</v>
+      </c>
+      <c r="JP45" t="n">
+        <v>0.7633098675811735</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>0.7697354668515157</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>0.776556368824057</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>0.7832280101033263</v>
+      </c>
+      <c r="JT45" t="n">
+        <v>0.7891683521191786</v>
+      </c>
+      <c r="JU45" t="n">
+        <v>0.7949745256587167</v>
+      </c>
+      <c r="JV45" t="n">
+        <v>0.8009068424777167</v>
+      </c>
+      <c r="JW45" t="n">
+        <v>0.806286427314494</v>
+      </c>
+      <c r="JX45" t="n">
+        <v>0.8102592133182619</v>
+      </c>
+      <c r="JY45" t="n">
+        <v>0.8122080158284899</v>
+      </c>
+      <c r="JZ45" t="n">
+        <v>0.8134756688011449</v>
+      </c>
+      <c r="KA45" t="n">
+        <v>0.8158916252103153</v>
+      </c>
+      <c r="KB45" t="n">
+        <v>0.8205471869083689</v>
+      </c>
+      <c r="KC45" t="n">
+        <v>0.8269335283676589</v>
+      </c>
+      <c r="KD45" t="n">
+        <v>0.8331380138634046</v>
+      </c>
+      <c r="KE45" t="n">
+        <v>0.8381302154030327</v>
+      </c>
+      <c r="KF45" t="n">
+        <v>0.8430501892923234</v>
+      </c>
+      <c r="KG45" t="n">
+        <v>0.8493574572998193</v>
+      </c>
+      <c r="KH45" t="n">
+        <v>0.8574640058844172</v>
+      </c>
+      <c r="KI45" t="n">
+        <v>0.8663727840968848</v>
+      </c>
+      <c r="KJ45" t="n">
+        <v>0.874307075630173</v>
+      </c>
+      <c r="KK45" t="n">
+        <v>0.8807364565016005</v>
+      </c>
+      <c r="KL45" t="n">
+        <v>0.8854202749816148</v>
+      </c>
+      <c r="KM45" t="n">
+        <v>0.8906527251343099</v>
+      </c>
+      <c r="KN45" t="n">
+        <v>0.8967669128404855</v>
+      </c>
+      <c r="KO45" t="n">
+        <v>0.9046338326321969</v>
+      </c>
+      <c r="KP45" t="n">
+        <v>0.9114613948823169</v>
+      </c>
+      <c r="KQ45" t="n">
+        <v>0.9168421735637917</v>
+      </c>
+      <c r="KR45" t="n">
+        <v>0.9212296200901963</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>0.9265115227282866</v>
+      </c>
+      <c r="KT45" t="n">
+        <v>0.9331037293921152</v>
+      </c>
+      <c r="KU45" t="n">
+        <v>0.9404347234334343</v>
+      </c>
+      <c r="KV45" t="n">
+        <v>0.9467871850643123</v>
+      </c>
+      <c r="KW45" t="n">
+        <v>0.9523710479156322</v>
+      </c>
+      <c r="KX45" t="n">
+        <v>0.9570091622216466</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>0.9620096557771971</v>
+      </c>
+      <c r="KZ45" t="n">
+        <v>0.9676173290597839</v>
+      </c>
+      <c r="LA45" t="n">
+        <v>0.9728365412226784</v>
+      </c>
+      <c r="LB45" t="n">
+        <v>0.9761414090164173</v>
+      </c>
+      <c r="LC45" t="n">
+        <v>0.9767880866766294</v>
+      </c>
+      <c r="LD45" t="n">
+        <v>0.9753408431618137</v>
+      </c>
+      <c r="LE45" t="n">
+        <v>0.9735617804037956</v>
+      </c>
+      <c r="LF45" t="n">
+        <v>0.9719466138054965</v>
+      </c>
+      <c r="LG45" t="n">
+        <v>0.9703923235689186</v>
+      </c>
+      <c r="LH45" t="n">
+        <v>0.9672326311532526</v>
+      </c>
+      <c r="LI45" t="n">
+        <v>0.9627772846519562</v>
+      </c>
+      <c r="LJ45" t="n">
+        <v>0.9580237291582973</v>
+      </c>
+      <c r="LK45" t="n">
+        <v>0.955763852188098</v>
+      </c>
+      <c r="LL45" t="n">
+        <v>0.9564387583488385</v>
+      </c>
+      <c r="LM45" t="n">
+        <v>0.9600516877718955</v>
+      </c>
+      <c r="LN45" t="n">
+        <v>0.9647418974223542</v>
+      </c>
+      <c r="LO45" t="n">
+        <v>0.9708796906690602</v>
+      </c>
+      <c r="LP45" t="n">
+        <v>0.9789143483457174</v>
+      </c>
+      <c r="LQ45" t="n">
+        <v>0.9909213150999309</v>
+      </c>
+      <c r="LR45" t="n">
+        <v>1.0070459164059087</v>
+      </c>
+      <c r="LS45" t="n">
+        <v>1.027444087538702</v>
+      </c>
+      <c r="LT45" t="n">
+        <v>1.0505364610698351</v>
+      </c>
+      <c r="LU45" t="n">
+        <v>1.0746247113174547</v>
+      </c>
+      <c r="LV45" t="n">
+        <v>1.0992877087461668</v>
+      </c>
+      <c r="LW45" t="n">
+        <v>1.124861900697062</v>
+      </c>
+      <c r="LX45" t="n">
+        <v>1.151874730019194</v>
+      </c>
+      <c r="LY45" t="n">
+        <v>1.1801908123217317</v>
+      </c>
+      <c r="LZ45" t="n">
+        <v>1.2091623247710237</v>
+      </c>
+      <c r="MA45" t="n">
+        <v>1.2377295128785315</v>
+      </c>
+      <c r="MB45" t="n">
+        <v>1.2658604382308316</v>
+      </c>
+      <c r="MC45" t="n">
+        <v>1.292959979473727</v>
+      </c>
+      <c r="MD45" t="n">
+        <v>1.317234753492792</v>
+      </c>
+      <c r="ME45" t="n">
+        <v>1.3367778671680834</v>
+      </c>
+      <c r="MF45" t="n">
+        <v>1.3496984036134458</v>
+      </c>
+      <c r="MG45" t="n">
+        <v>1.3561220778335819</v>
+      </c>
+      <c r="MH45" t="n">
+        <v>1.3604193857402638</v>
+      </c>
+      <c r="MI45" t="n">
+        <v>1.366479881450266</v>
+      </c>
+      <c r="MJ45" t="n">
+        <v>1.3763408924460294</v>
+      </c>
+      <c r="MK45" t="n">
+        <v>1.3885151041130284</v>
+      </c>
+      <c r="ML45" t="n">
+        <v>1.3999009406384402</v>
+      </c>
+      <c r="MM45" t="n">
+        <v>1.4078960603210893</v>
+      </c>
+      <c r="MN45" t="n">
+        <v>1.411408191872007</v>
+      </c>
+      <c r="MO45" t="n">
+        <v>1.4126890818099562</v>
+      </c>
+      <c r="MP45" t="n">
+        <v>1.4121607244738168</v>
+      </c>
+      <c r="MQ45" t="n">
+        <v>1.4110664485798965</v>
+      </c>
+      <c r="MR45" t="n">
+        <v>1.4076317269405072</v>
+      </c>
+      <c r="MS45" t="n">
+        <v>1.4031150029754276</v>
+      </c>
+      <c r="MT45" t="n">
+        <v>1.3977513693303552</v>
+      </c>
+      <c r="MU45" t="n">
+        <v>1.394505268162566</v>
+      </c>
+      <c r="MV45" t="n">
+        <v>1.3933310679270383</v>
+      </c>
+      <c r="MW45" t="n">
+        <v>1.3947261587920166</v>
+      </c>
+      <c r="MX45" t="n">
+        <v>1.3962274269559043</v>
+      </c>
+      <c r="MY45" t="n">
+        <v>1.3973045762352454</v>
+      </c>
+      <c r="MZ45" t="n">
+        <v>1.39769587461727</v>
+      </c>
+      <c r="NA45" t="n">
+        <v>1.3991317829482954</v>
+      </c>
+      <c r="NB45" t="n">
+        <v>1.4018692221134905</v>
+      </c>
+      <c r="NC45" t="n">
+        <v>1.4054186841319036</v>
+      </c>
+      <c r="ND45" t="n">
+        <v>1.407288973978204</v>
+      </c>
+      <c r="NE45" t="n">
+        <v>1.4068867995590786</v>
+      </c>
+      <c r="NF45" t="n">
+        <v>1.405065817273753</v>
+      </c>
+      <c r="NG45" t="n">
+        <v>1.4038718080637873</v>
+      </c>
+      <c r="NH45" t="n">
+        <v>1.4049469283981233</v>
+      </c>
+      <c r="NI45" t="n">
+        <v>1.4064470440179884</v>
+      </c>
+      <c r="NJ45" t="n">
+        <v>1.4071936636135425</v>
+      </c>
+      <c r="NK45" t="n">
+        <v>1.4051685311915445</v>
+      </c>
+      <c r="NL45" t="n">
+        <v>1.4023227675254555</v>
+      </c>
+      <c r="NM45" t="n">
+        <v>1.4003658690598684</v>
+      </c>
+      <c r="NN45" t="n">
+        <v>1.4006360715287127</v>
+      </c>
+      <c r="NO45" t="n">
+        <v>1.4022765302128168</v>
+      </c>
+      <c r="NP45" t="n">
+        <v>1.4031529040546087</v>
+      </c>
+      <c r="NQ45" t="n">
+        <v>1.402226663170389</v>
+      </c>
+      <c r="NR45" t="n">
+        <v>1.4004306581520292</v>
+      </c>
+      <c r="NS45" t="n">
+        <v>1.3999273794842524</v>
+      </c>
+      <c r="NT45" t="n">
+        <v>1.4016743717194131</v>
+      </c>
+      <c r="NU45" t="n">
+        <v>1.404626233335744</v>
+      </c>
+      <c r="NV45" t="n">
+        <v>1.4065538659253847</v>
+      </c>
+      <c r="NW45" t="n">
+        <v>1.4069142075615064</v>
+      </c>
+      <c r="NX45" t="n">
+        <v>1.4061348177716348</v>
+      </c>
+      <c r="NY45" t="n">
+        <v>1.406939971696771</v>
+      </c>
+      <c r="NZ45" t="n">
+        <v>1.4095891484986907</v>
+      </c>
+      <c r="OA45" t="n">
+        <v>1.4130278244443837</v>
+      </c>
+      <c r="OB45" t="n">
+        <v>1.414541645507362</v>
+      </c>
+      <c r="OC45" t="n">
+        <v>1.413407990843093</v>
+      </c>
+      <c r="OD45" t="n">
+        <v>1.409980198632346</v>
+      </c>
+      <c r="OE45" t="n">
+        <v>1.4064567854466432</v>
+      </c>
+      <c r="OF45" t="n">
+        <v>1.403320545679152</v>
+      </c>
+      <c r="OG45" t="n">
+        <v>1.3999903168480143</v>
+      </c>
+      <c r="OH45" t="n">
+        <v>1.3942523487580696</v>
+      </c>
+      <c r="OI45" t="n">
+        <v>1.3851322048960613</v>
+      </c>
+      <c r="OJ45" t="n">
+        <v>1.3743672864916803</v>
+      </c>
+      <c r="OK45" t="n">
+        <v>1.3639130039314307</v>
+      </c>
+      <c r="OL45" t="n">
+        <v>1.354712763147411</v>
+      </c>
+      <c r="OM45" t="n">
+        <v>1.3456009403258566</v>
+      </c>
+      <c r="ON45" t="n">
+        <v>1.3345915077598405</v>
+      </c>
+      <c r="OO45" t="n">
+        <v>1.3215389708240877</v>
+      </c>
+      <c r="OP45" t="n">
+        <v>1.3071828025836818</v>
+      </c>
+      <c r="OQ45" t="n">
+        <v>1.2936173211797035</v>
+      </c>
+      <c r="OR45" t="n">
+        <v>1.281965839352241</v>
+      </c>
+      <c r="OS45" t="n">
+        <v>1.2716207117207856</v>
+      </c>
+      <c r="OT45" t="n">
+        <v>1.2603194362369885</v>
+      </c>
+      <c r="OU45" t="n">
+        <v>1.2477260662122298</v>
+      </c>
+      <c r="OV45" t="n">
+        <v>1.2343971767364201</v>
+      </c>
+      <c r="OW45" t="n">
+        <v>1.2229604683342652</v>
+      </c>
+      <c r="OX45" t="n">
+        <v>1.2132576389520329</v>
+      </c>
+      <c r="OY45" t="n">
+        <v>1.2048261482222107</v>
+      </c>
+      <c r="OZ45" t="n">
+        <v>1.1952325026933672</v>
+      </c>
+      <c r="PA45" t="n">
+        <v>1.184208595137594</v>
+      </c>
+      <c r="PB45" t="n">
+        <v>1.1716929365666162</v>
+      </c>
+      <c r="PC45" t="n">
+        <v>1.1599280207921503</v>
+      </c>
+      <c r="PD45" t="n">
+        <v>1.1489991720381783</v>
+      </c>
+      <c r="PE45" t="n">
+        <v>1.137867593304418</v>
+      </c>
+      <c r="PF45" t="n">
+        <v>1.1244473121348806</v>
+      </c>
+      <c r="PG45" t="n">
+        <v>1.1083753409248962</v>
+      </c>
+      <c r="PH45" t="n">
+        <v>1.0899482035759893</v>
+      </c>
+      <c r="PI45" t="n">
+        <v>1.0712480188807607</v>
+      </c>
+      <c r="PJ45" t="n">
+        <v>1.0537097293653646</v>
+      </c>
+      <c r="PK45" t="n">
+        <v>1.0374029335600075</v>
+      </c>
+      <c r="PL45" t="n">
+        <v>1.0204998032111599</v>
+      </c>
+      <c r="PM45" t="n">
+        <v>1.003154305658012</v>
+      </c>
+      <c r="PN45" t="n">
+        <v>0.986306476251014</v>
+      </c>
+      <c r="PO45" t="n">
+        <v>0.9717140224446585</v>
+      </c>
+      <c r="PP45" t="n">
+        <v>0.960199303375643</v>
+      </c>
+      <c r="PQ45" t="n">
+        <v>0.9508670239240467</v>
+      </c>
+      <c r="PR45" t="n">
+        <v>0.942031927575322</v>
+      </c>
+      <c r="PS45" t="n">
+        <v>0.9329485021709987</v>
+      </c>
+      <c r="PT45" t="n">
+        <v>0.9239665854032078</v>
+      </c>
+      <c r="PU45" t="n">
+        <v>0.9168417532998316</v>
+      </c>
+      <c r="PV45" t="n">
+        <v>0.9121206223323274</v>
+      </c>
+      <c r="PW45" t="n">
+        <v>0.9090076660978531</v>
+      </c>
+      <c r="PX45" t="n">
+        <v>0.9057297912897204</v>
+      </c>
+      <c r="PY45" t="n">
+        <v>0.9017120123924786</v>
+      </c>
+      <c r="PZ45" t="n">
+        <v>0.8976122639139463</v>
+      </c>
+      <c r="QA45" t="n">
+        <v>0.8946005089796788</v>
+      </c>
+      <c r="QB45" t="n">
+        <v>0.8931719113715891</v>
+      </c>
+      <c r="QC45" t="n">
+        <v>0.8925333741647232</v>
+      </c>
+      <c r="QD45" t="n">
+        <v>0.8916527401306038</v>
+      </c>
+      <c r="QE45" t="n">
+        <v>0.8896855630524662</v>
+      </c>
+      <c r="QF45" t="n">
+        <v>0.887567497092415</v>
+      </c>
+      <c r="QG45" t="n">
+        <v>0.8863233701501665</v>
+      </c>
+      <c r="QH45" t="n">
+        <v>0.8869898707007853</v>
+      </c>
+      <c r="QI45" t="n">
+        <v>0.8883305793193285</v>
+      </c>
+      <c r="QJ45" t="n">
+        <v>0.8897258070302286</v>
+      </c>
+      <c r="QK45" t="n">
+        <v>0.8898331563150279</v>
+      </c>
+      <c r="QL45" t="n">
+        <v>0.889850629929058</v>
+      </c>
+      <c r="QM45" t="n">
+        <v>0.8908766391680141</v>
+      </c>
+      <c r="QN45" t="n">
+        <v>0.8936826234733605</v>
+      </c>
+      <c r="QO45" t="n">
+        <v>0.8976248716062613</v>
+      </c>
+      <c r="QP45" t="n">
+        <v>0.9013192120144766</v>
+      </c>
+      <c r="QQ45" t="n">
+        <v>0.9040021737866798</v>
+      </c>
+      <c r="QR45" t="n">
+        <v>0.9062137086811947</v>
+      </c>
+      <c r="QS45" t="n">
+        <v>0.9089777648018742</v>
+      </c>
+      <c r="QT45" t="n">
+        <v>0.9130288201464625</v>
+      </c>
+      <c r="QU45" t="n">
+        <v>0.9175337032951982</v>
+      </c>
+      <c r="QV45" t="n">
+        <v>0.9210754188374226</v>
+      </c>
+      <c r="QW45" t="n">
+        <v>0.9222845943998526</v>
+      </c>
+      <c r="QX45" t="n">
+        <v>0.9218940346950392</v>
+      </c>
+      <c r="QY45" t="n">
+        <v>0.9209855192960595</v>
+      </c>
+      <c r="QZ45" t="n">
+        <v>0.9198168639369808</v>
+      </c>
+      <c r="RA45" t="n">
+        <v>0.9176696289578533</v>
+      </c>
+      <c r="RB45" t="n">
+        <v>0.9131800894792725</v>
+      </c>
+      <c r="RC45" t="n">
+        <v>0.9056731769687321</v>
+      </c>
+      <c r="RD45" t="n">
+        <v>0.8962602863177941</v>
+      </c>
+      <c r="RE45" t="n">
+        <v>0.8864700235597672</v>
+      </c>
+      <c r="RF45" t="n">
+        <v>0.8763727399390123</v>
+      </c>
+      <c r="RG45" t="n">
+        <v>0.8664542506808468</v>
+      </c>
+      <c r="RH45" t="n">
+        <v>0.8563893437797407</v>
+      </c>
+      <c r="RI45" t="n">
+        <v>0.8466637778308306</v>
+      </c>
+      <c r="RJ45" t="n">
+        <v>0.836998712820655</v>
+      </c>
+      <c r="RK45" t="n">
+        <v>0.8282334272412936</v>
+      </c>
+      <c r="RL45" t="n">
+        <v>0.8196403340441595</v>
+      </c>
+      <c r="RM45" t="n">
+        <v>0.812006469831972</v>
+      </c>
+      <c r="RN45" t="n">
+        <v>0.8029289998234472</v>
+      </c>
+      <c r="RO45" t="n">
+        <v>0.7934055114571175</v>
+      </c>
+      <c r="RP45" t="n">
+        <v>0.7829116458720105</v>
+      </c>
+      <c r="RQ45" t="n">
+        <v>0.7733995647133802</v>
+      </c>
+      <c r="RR45" t="n">
+        <v>0.7642508727975503</v>
+      </c>
+      <c r="RS45" t="n">
+        <v>0.7557817263462545</v>
+      </c>
+      <c r="RT45" t="n">
+        <v>0.7466195521918747</v>
+      </c>
+      <c r="RU45" t="n">
+        <v>0.7369803671876214</v>
+      </c>
+      <c r="RV45" t="n">
+        <v>0.726628197537941</v>
+      </c>
+      <c r="RW45" t="n">
+        <v>0.7172130313857332</v>
+      </c>
+      <c r="RX45" t="n">
+        <v>0.7080053266248478</v>
+      </c>
+      <c r="RY45" t="n">
+        <v>0.7000854592846576</v>
+      </c>
+      <c r="RZ45" t="n">
+        <v>0.6912153985892793</v>
+      </c>
+      <c r="SA45" t="n">
+        <v>0.682632247320768</v>
+      </c>
+      <c r="SB45" t="n">
+        <v>0.6728356337007406</v>
+      </c>
+      <c r="SC45" t="n">
+        <v>0.6639908992222733</v>
+      </c>
+      <c r="SD45" t="n">
+        <v>0.6552133514264085</v>
+      </c>
+      <c r="SE45" t="n">
+        <v>0.647315989554454</v>
+      </c>
+      <c r="SF45" t="n">
+        <v>0.6389649700135636</v>
+      </c>
+      <c r="SG45" t="n">
+        <v>0.6306641220293677</v>
+      </c>
+      <c r="SH45" t="n">
+        <v>0.6219593120989336</v>
+      </c>
+      <c r="SI45" t="n">
+        <v>0.6137788241905775</v>
+      </c>
+      <c r="SJ45" t="n">
+        <v>0.6064980306863927</v>
+      </c>
+      <c r="SK45" t="n">
+        <v>0.5997693750411229</v>
+      </c>
+      <c r="SL45" t="n">
+        <v>0.5925541126033609</v>
+      </c>
+      <c r="SM45" t="n">
+        <v>0.584995865541302</v>
+      </c>
+      <c r="SN45" t="n">
+        <v>0.5776096500296584</v>
+      </c>
+      <c r="SO45" t="n">
+        <v>0.57141265605881</v>
+      </c>
+      <c r="SP45" t="n">
+        <v>0.5657669280331129</v>
+      </c>
+      <c r="SQ45" t="n">
+        <v>0.5607459896768616</v>
+      </c>
+      <c r="SR45" t="n">
+        <v>0.5557146915905053</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
